--- a/IDR_forecast.xlsx
+++ b/IDR_forecast.xlsx
@@ -870,25 +870,25 @@
         <v>95.21101440100061</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00368682440237398</v>
+        <v>0.003686824402373981</v>
       </c>
       <c r="P6" t="n">
-        <v>69.07452109655846</v>
+        <v>69.07452109655848</v>
       </c>
       <c r="Q6" t="n">
         <v>0.9936688140329933</v>
       </c>
       <c r="R6" t="n">
-        <v>988.2789968526823</v>
+        <v>987.9569838296144</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04446004360672045</v>
+        <v>0.04441226846707428</v>
       </c>
       <c r="T6" t="n">
-        <v>906.6887548822782</v>
+        <v>905.7198816385923</v>
       </c>
       <c r="U6" t="n">
-        <v>-57.92669825748017</v>
+        <v>-57.88830409359144</v>
       </c>
     </row>
     <row r="7">
@@ -1138,25 +1138,25 @@
         <v>129.5442498457629</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005287226831149138</v>
+        <v>0.005287226831149141</v>
       </c>
       <c r="P10" t="n">
-        <v>98.91656439849184</v>
+        <v>98.91656439849193</v>
       </c>
       <c r="Q10" t="n">
         <v>0.9882794776669135</v>
       </c>
       <c r="R10" t="n">
-        <v>526.2243484327166</v>
+        <v>526.1259750639969</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02259805331849611</v>
+        <v>0.02258212827194739</v>
       </c>
       <c r="T10" t="n">
-        <v>461.2994751161365</v>
+        <v>460.9765173682411</v>
       </c>
       <c r="U10" t="n">
-        <v>-15.70686080691373</v>
+        <v>-15.70061496685421</v>
       </c>
     </row>
     <row r="11">
@@ -1200,28 +1200,28 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>207.8229199241286</v>
+        <v>207.8229199241287</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008487416367014047</v>
+        <v>0.008487416367014049</v>
       </c>
       <c r="P11" t="n">
-        <v>158.8283323168483</v>
+        <v>158.8283323168484</v>
       </c>
       <c r="Q11" t="n">
         <v>0.9698354000080051</v>
       </c>
       <c r="R11" t="n">
-        <v>490.7154076506582</v>
+        <v>490.6385169132824</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02218408474098421</v>
+        <v>0.02217663322687196</v>
       </c>
       <c r="T11" t="n">
-        <v>452.617423321979</v>
+        <v>452.466307643369</v>
       </c>
       <c r="U11" t="n">
-        <v>-13.52821856591618</v>
+        <v>-13.52366603749664</v>
       </c>
     </row>
     <row r="12">
@@ -1263,28 +1263,28 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>443.9435126917572</v>
+        <v>412.214656308573</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01099371290506378</v>
+        <v>0.01056164966755477</v>
       </c>
       <c r="P12" t="n">
-        <v>214.045454642698</v>
+        <v>206.2540390047335</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8613640584394192</v>
+        <v>0.880472656789891</v>
       </c>
       <c r="R12" t="n">
-        <v>384.9289606372813</v>
+        <v>347.6066461755811</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01758940742982054</v>
+        <v>0.01538892771813079</v>
       </c>
       <c r="T12" t="n">
-        <v>358.8666742265611</v>
+        <v>314.1490535232915</v>
       </c>
       <c r="U12" t="n">
-        <v>-7.939518969699057</v>
+        <v>-6.290026704080978</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1397,13 @@
         <v>20225.19899275812</v>
       </c>
       <c r="J2" t="n">
-        <v>20320.9140533102</v>
+        <v>20320.91405331019</v>
       </c>
       <c r="K2" t="n">
         <v>20342.5800425382</v>
       </c>
       <c r="L2" t="n">
-        <v>20387.56118340445</v>
+        <v>20341.53677087696</v>
       </c>
     </row>
     <row r="3">
@@ -1441,7 +1441,7 @@
         <v>20308.34636896318</v>
       </c>
       <c r="L3" t="n">
-        <v>20412.24815169237</v>
+        <v>20348.28620863886</v>
       </c>
     </row>
     <row r="4">
@@ -1473,13 +1473,13 @@
         <v>20215.61394586312</v>
       </c>
       <c r="J4" t="n">
-        <v>20267.68111111742</v>
+        <v>20267.68111111741</v>
       </c>
       <c r="K4" t="n">
         <v>20299.73848108771</v>
       </c>
       <c r="L4" t="n">
-        <v>20376.62781634978</v>
+        <v>20354.98128904532</v>
       </c>
     </row>
     <row r="5">
@@ -1517,7 +1517,7 @@
         <v>20287.93899072365</v>
       </c>
       <c r="L5" t="n">
-        <v>20390.03860915164</v>
+        <v>20377.65941579608</v>
       </c>
     </row>
     <row r="6">
@@ -1555,7 +1555,7 @@
         <v>20285.9209313855</v>
       </c>
       <c r="L6" t="n">
-        <v>20363.11307006526</v>
+        <v>20386.43634323897</v>
       </c>
     </row>
     <row r="7">
@@ -1593,7 +1593,7 @@
         <v>20280.13865802718</v>
       </c>
       <c r="L7" t="n">
-        <v>20349.60546562307</v>
+        <v>20377.39992885843</v>
       </c>
     </row>
     <row r="8">
@@ -1631,7 +1631,7 @@
         <v>20248.81653844247</v>
       </c>
       <c r="L8" t="n">
-        <v>20370.13984937061</v>
+        <v>20382.78646504417</v>
       </c>
     </row>
     <row r="9">
@@ -1666,10 +1666,10 @@
         <v>20183.62677417845</v>
       </c>
       <c r="K9" t="n">
-        <v>20244.79820302251</v>
+        <v>20244.7982030225</v>
       </c>
       <c r="L9" t="n">
-        <v>20360.53208760444</v>
+        <v>20380.39950263305</v>
       </c>
     </row>
     <row r="10">
@@ -1707,7 +1707,7 @@
         <v>20228.00293667574</v>
       </c>
       <c r="L10" t="n">
-        <v>20313.61454801785</v>
+        <v>20435.27107071959</v>
       </c>
     </row>
     <row r="11">
@@ -1745,7 +1745,7 @@
         <v>20240.91404285601</v>
       </c>
       <c r="L11" t="n">
-        <v>20327.97758646244</v>
+        <v>20433.61257622516</v>
       </c>
     </row>
     <row r="12">
@@ -1783,7 +1783,7 @@
         <v>20221.98922551353</v>
       </c>
       <c r="L12" t="n">
-        <v>20335.64475096253</v>
+        <v>20436.87044663038</v>
       </c>
     </row>
     <row r="13">
@@ -1821,7 +1821,7 @@
         <v>20213.31353629115</v>
       </c>
       <c r="L13" t="n">
-        <v>20334.55760385374</v>
+        <v>20409.55012237128</v>
       </c>
     </row>
     <row r="14">
@@ -1859,7 +1859,7 @@
         <v>20206.09313903878</v>
       </c>
       <c r="L14" t="n">
-        <v>20337.55400347622</v>
+        <v>20429.56830962667</v>
       </c>
     </row>
     <row r="15">
@@ -1894,10 +1894,10 @@
         <v>20138.30909694785</v>
       </c>
       <c r="K15" t="n">
-        <v>20205.2427168342</v>
+        <v>20205.24271683419</v>
       </c>
       <c r="L15" t="n">
-        <v>20343.1532078555</v>
+        <v>20448.01291095743</v>
       </c>
     </row>
     <row r="16">
@@ -1935,7 +1935,7 @@
         <v>20196.75059055476</v>
       </c>
       <c r="L16" t="n">
-        <v>20339.29423238831</v>
+        <v>20444.09759428972</v>
       </c>
     </row>
     <row r="17">
@@ -1973,7 +1973,7 @@
         <v>20175.00927714413</v>
       </c>
       <c r="L17" t="n">
-        <v>20341.14714370147</v>
+        <v>20441.32259177918</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2011,7 @@
         <v>20189.45176281716</v>
       </c>
       <c r="L18" t="n">
-        <v>20331.35924880121</v>
+        <v>20429.96706248956</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>20200.76024344419</v>
       </c>
       <c r="L19" t="n">
-        <v>20349.20988691231</v>
+        <v>20417.27204099583</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>20192.42246225788</v>
       </c>
       <c r="L20" t="n">
-        <v>20342.87150185286</v>
+        <v>20411.0300708077</v>
       </c>
     </row>
     <row r="21">
@@ -2125,7 +2125,7 @@
         <v>20190.06772000845</v>
       </c>
       <c r="L21" t="n">
-        <v>20313.33204847718</v>
+        <v>20419.33881080958</v>
       </c>
     </row>
     <row r="22">
@@ -2163,7 +2163,7 @@
         <v>20197.81487042088</v>
       </c>
       <c r="L22" t="n">
-        <v>20322.38393684941</v>
+        <v>20418.60954935486</v>
       </c>
     </row>
     <row r="23">
@@ -2201,7 +2201,7 @@
         <v>20192.10633486355</v>
       </c>
       <c r="L23" t="n">
-        <v>20309.68415412746</v>
+        <v>20411.43318812979</v>
       </c>
     </row>
     <row r="24">
@@ -2239,7 +2239,7 @@
         <v>20169.44774579481</v>
       </c>
       <c r="L24" t="n">
-        <v>20319.85096343973</v>
+        <v>20409.75842610563</v>
       </c>
     </row>
     <row r="25">
@@ -2277,7 +2277,7 @@
         <v>20182.5096528195</v>
       </c>
       <c r="L25" t="n">
-        <v>20271.85460889374</v>
+        <v>20411.48873579229</v>
       </c>
     </row>
     <row r="26">
@@ -2315,7 +2315,7 @@
         <v>20177.0955387367</v>
       </c>
       <c r="L26" t="n">
-        <v>20242.66113810158</v>
+        <v>20392.21052275511</v>
       </c>
     </row>
     <row r="27">
@@ -2353,7 +2353,7 @@
         <v>20171.6582461217</v>
       </c>
       <c r="L27" t="n">
-        <v>20262.92492537899</v>
+        <v>20372.05624372662</v>
       </c>
     </row>
     <row r="28">
@@ -2391,7 +2391,7 @@
         <v>20166.00296230457</v>
       </c>
       <c r="L28" t="n">
-        <v>20235.5534179166</v>
+        <v>20386.54307410476</v>
       </c>
     </row>
     <row r="29">
@@ -2429,7 +2429,7 @@
         <v>20161.0705952989</v>
       </c>
       <c r="L29" t="n">
-        <v>20219.60012924864</v>
+        <v>20399.18413501207</v>
       </c>
     </row>
     <row r="30">
@@ -2467,7 +2467,7 @@
         <v>20158.00770793176</v>
       </c>
       <c r="L30" t="n">
-        <v>20190.89468434839</v>
+        <v>20357.16867664049</v>
       </c>
     </row>
     <row r="31">
@@ -2505,7 +2505,7 @@
         <v>20139.71337489553</v>
       </c>
       <c r="L31" t="n">
-        <v>20171.65495790594</v>
+        <v>20377.15234499132</v>
       </c>
     </row>
     <row r="32">
@@ -2543,7 +2543,7 @@
         <v>20147.72799664815</v>
       </c>
       <c r="L32" t="n">
-        <v>20170.3460169162</v>
+        <v>20356.99211442756</v>
       </c>
     </row>
     <row r="33">
@@ -2578,10 +2578,10 @@
         <v>20076.44844707156</v>
       </c>
       <c r="K33" t="n">
-        <v>20144.86411251768</v>
+        <v>20144.86411251767</v>
       </c>
       <c r="L33" t="n">
-        <v>20147.83889761211</v>
+        <v>20319.36611169997</v>
       </c>
     </row>
     <row r="34">
@@ -2619,7 +2619,7 @@
         <v>20143.84412965685</v>
       </c>
       <c r="L34" t="n">
-        <v>20147.1143973856</v>
+        <v>20306.18742877353</v>
       </c>
     </row>
     <row r="35">
@@ -2657,7 +2657,7 @@
         <v>20136.95610379725</v>
       </c>
       <c r="L35" t="n">
-        <v>20132.99576865598</v>
+        <v>20316.81329983941</v>
       </c>
     </row>
     <row r="36">
@@ -2695,7 +2695,7 @@
         <v>20137.5735961498</v>
       </c>
       <c r="L36" t="n">
-        <v>20134.99508773671</v>
+        <v>20301.73488685571</v>
       </c>
     </row>
     <row r="37">
@@ -2733,7 +2733,7 @@
         <v>20139.15770792229</v>
       </c>
       <c r="L37" t="n">
-        <v>20131.6213607783</v>
+        <v>20282.36502017542</v>
       </c>
     </row>
     <row r="38">
@@ -2771,7 +2771,7 @@
         <v>20116.90300349205</v>
       </c>
       <c r="L38" t="n">
-        <v>20153.24685932482</v>
+        <v>20284.88847112867</v>
       </c>
     </row>
     <row r="39">
@@ -2806,10 +2806,10 @@
         <v>20056.16408716692</v>
       </c>
       <c r="K39" t="n">
-        <v>20129.54856733362</v>
+        <v>20129.54856733361</v>
       </c>
       <c r="L39" t="n">
-        <v>20130.85996103313</v>
+        <v>20284.14413245127</v>
       </c>
     </row>
     <row r="40">
@@ -2847,7 +2847,7 @@
         <v>20127.59725350391</v>
       </c>
       <c r="L40" t="n">
-        <v>20121.61048169003</v>
+        <v>20278.57944697654</v>
       </c>
     </row>
     <row r="41">
@@ -2885,7 +2885,7 @@
         <v>20124.46355298398</v>
       </c>
       <c r="L41" t="n">
-        <v>20111.39645686464</v>
+        <v>20280.24825746543</v>
       </c>
     </row>
     <row r="42">
@@ -2920,10 +2920,10 @@
         <v>20046.11549062335</v>
       </c>
       <c r="K42" t="n">
-        <v>20123.18585251577</v>
+        <v>20123.18585251576</v>
       </c>
       <c r="L42" t="n">
-        <v>20111.06793211789</v>
+        <v>20260.17650639264</v>
       </c>
     </row>
     <row r="43">
@@ -2961,7 +2961,7 @@
         <v>20122.58456648793</v>
       </c>
       <c r="L43" t="n">
-        <v>20111.26433278171</v>
+        <v>20218.90379962239</v>
       </c>
     </row>
     <row r="44">
@@ -2999,7 +2999,7 @@
         <v>20120.26664745557</v>
       </c>
       <c r="L44" t="n">
-        <v>20123.14478748188</v>
+        <v>20217.41670934365</v>
       </c>
     </row>
     <row r="45">
@@ -3037,7 +3037,7 @@
         <v>20103.0228775257</v>
       </c>
       <c r="L45" t="n">
-        <v>20077.73298631788</v>
+        <v>20231.87100466234</v>
       </c>
     </row>
     <row r="46">
@@ -3075,7 +3075,7 @@
         <v>20117.96299193052</v>
       </c>
       <c r="L46" t="n">
-        <v>20083.64405114516</v>
+        <v>20219.32159739814</v>
       </c>
     </row>
     <row r="47">
@@ -3113,7 +3113,7 @@
         <v>20115.56761671839</v>
       </c>
       <c r="L47" t="n">
-        <v>20082.01094986786</v>
+        <v>20204.09201541866</v>
       </c>
     </row>
     <row r="48">
@@ -3151,7 +3151,7 @@
         <v>20114.90274286228</v>
       </c>
       <c r="L48" t="n">
-        <v>20055.28736621156</v>
+        <v>20195.09805532303</v>
       </c>
     </row>
     <row r="49">
@@ -3189,7 +3189,7 @@
         <v>20112.3414561884</v>
       </c>
       <c r="L49" t="n">
-        <v>20041.89125386336</v>
+        <v>20209.40872025727</v>
       </c>
     </row>
     <row r="50">
@@ -3227,7 +3227,7 @@
         <v>20112.54561853195</v>
       </c>
       <c r="L50" t="n">
-        <v>20017.31696797651</v>
+        <v>20199.3133293682</v>
       </c>
     </row>
     <row r="51">
@@ -3265,7 +3265,7 @@
         <v>20113.01521307719</v>
       </c>
       <c r="L51" t="n">
-        <v>19989.53916903989</v>
+        <v>20210.7553543037</v>
       </c>
     </row>
     <row r="52">
@@ -3303,7 +3303,7 @@
         <v>20094.03125264964</v>
       </c>
       <c r="L52" t="n">
-        <v>19989.23802135537</v>
+        <v>20202.11570894097</v>
       </c>
     </row>
     <row r="53">
@@ -3341,7 +3341,7 @@
         <v>20108.1194406972</v>
       </c>
       <c r="L53" t="n">
-        <v>19984.43195824268</v>
+        <v>20181.6277471685</v>
       </c>
     </row>
     <row r="54">
@@ -3376,10 +3376,10 @@
         <v>20019.28563669567</v>
       </c>
       <c r="K54" t="n">
-        <v>20107.06397410433</v>
+        <v>20107.06397410432</v>
       </c>
       <c r="L54" t="n">
-        <v>19968.70363760782</v>
+        <v>20173.11387758442</v>
       </c>
     </row>
     <row r="55">
@@ -3414,10 +3414,10 @@
         <v>20017.57342234021</v>
       </c>
       <c r="K55" t="n">
-        <v>20105.45974896051</v>
+        <v>20105.4597489605</v>
       </c>
       <c r="L55" t="n">
-        <v>19946.33856161211</v>
+        <v>20166.45371285152</v>
       </c>
     </row>
     <row r="56">
@@ -3455,7 +3455,7 @@
         <v>20104.90860242876</v>
       </c>
       <c r="L56" t="n">
-        <v>19923.39063192925</v>
+        <v>20160.23316819035</v>
       </c>
     </row>
     <row r="57">
@@ -3493,7 +3493,7 @@
         <v>20102.9581071063</v>
       </c>
       <c r="L57" t="n">
-        <v>19904.26636527098</v>
+        <v>20139.03578341404</v>
       </c>
     </row>
     <row r="58">
@@ -3531,7 +3531,7 @@
         <v>20102.63955105653</v>
       </c>
       <c r="L58" t="n">
-        <v>19906.60254124783</v>
+        <v>20131.57930326241</v>
       </c>
     </row>
     <row r="59">
@@ -3569,7 +3569,7 @@
         <v>20086.11141107828</v>
       </c>
       <c r="L59" t="n">
-        <v>19906.01294248737</v>
+        <v>20139.07188939467</v>
       </c>
     </row>
     <row r="60">
@@ -3607,7 +3607,7 @@
         <v>20099.5260038727</v>
       </c>
       <c r="L60" t="n">
-        <v>19900.58871324494</v>
+        <v>20107.49066265335</v>
       </c>
     </row>
     <row r="61">
@@ -3645,7 +3645,7 @@
         <v>20097.54232052313</v>
       </c>
       <c r="L61" t="n">
-        <v>19922.03844311657</v>
+        <v>20106.4265281476</v>
       </c>
     </row>
     <row r="62">
@@ -3683,7 +3683,7 @@
         <v>20098.22894962889</v>
       </c>
       <c r="L62" t="n">
-        <v>19911.64706254021</v>
+        <v>20102.84211684073</v>
       </c>
     </row>
     <row r="63">
@@ -3721,7 +3721,7 @@
         <v>20097.08141258725</v>
       </c>
       <c r="L63" t="n">
-        <v>19893.59050130887</v>
+        <v>20090.55100620713</v>
       </c>
     </row>
     <row r="64">
@@ -3759,7 +3759,7 @@
         <v>19987.33550977158</v>
       </c>
       <c r="L64" t="n">
-        <v>19900.15742532258</v>
+        <v>20078.77569529667</v>
       </c>
     </row>
     <row r="65">
@@ -3797,7 +3797,7 @@
         <v>19988.51083352969</v>
       </c>
       <c r="L65" t="n">
-        <v>19879.14810906072</v>
+        <v>20083.6250062323</v>
       </c>
     </row>
     <row r="66">
@@ -3835,7 +3835,7 @@
         <v>19971.47034634019</v>
       </c>
       <c r="L66" t="n">
-        <v>19870.83659167571</v>
+        <v>20074.07636304977</v>
       </c>
     </row>
     <row r="67">
@@ -3873,7 +3873,7 @@
         <v>19985.81017706007</v>
       </c>
       <c r="L67" t="n">
-        <v>19869.9406872335</v>
+        <v>20057.30295282201</v>
       </c>
     </row>
     <row r="68">
@@ -3908,10 +3908,10 @@
         <v>19997.08931185269</v>
       </c>
       <c r="K68" t="n">
-        <v>19985.50479128258</v>
+        <v>19985.50479128257</v>
       </c>
       <c r="L68" t="n">
-        <v>19863.87448572026</v>
+        <v>20031.30466293025</v>
       </c>
     </row>
     <row r="69">
@@ -3949,7 +3949,7 @@
         <v>19985.62161094385</v>
       </c>
       <c r="L69" t="n">
-        <v>19818.46387486331</v>
+        <v>20034.8954225414</v>
       </c>
     </row>
     <row r="70">
@@ -3987,7 +3987,7 @@
         <v>19985.22635901689</v>
       </c>
       <c r="L70" t="n">
-        <v>19817.04780623876</v>
+        <v>20030.46628999563</v>
       </c>
     </row>
     <row r="71">
@@ -4025,7 +4025,7 @@
         <v>19983.85721186824</v>
       </c>
       <c r="L71" t="n">
-        <v>19816.67682720711</v>
+        <v>20012.24467285287</v>
       </c>
     </row>
     <row r="72">
@@ -4063,7 +4063,7 @@
         <v>19985.25328687259</v>
       </c>
       <c r="L72" t="n">
-        <v>19800.49698342998</v>
+        <v>20017.64271534012</v>
       </c>
     </row>
     <row r="73">
@@ -4101,7 +4101,7 @@
         <v>19968.41344482715</v>
       </c>
       <c r="L73" t="n">
-        <v>19790.10401577756</v>
+        <v>20008.97847029829</v>
       </c>
     </row>
     <row r="74">
@@ -4139,7 +4139,7 @@
         <v>19982.7292595183</v>
       </c>
       <c r="L74" t="n">
-        <v>19795.45047829251</v>
+        <v>19991.8769320928</v>
       </c>
     </row>
     <row r="75">
@@ -4177,7 +4177,7 @@
         <v>19982.67897621668</v>
       </c>
       <c r="L75" t="n">
-        <v>19775.80803129698</v>
+        <v>19996.84448019574</v>
       </c>
     </row>
     <row r="76">
@@ -4215,7 +4215,7 @@
         <v>19912.5942552507</v>
       </c>
       <c r="L76" t="n">
-        <v>19785.06108156125</v>
+        <v>19998.58748649096</v>
       </c>
     </row>
     <row r="77">
@@ -4253,7 +4253,7 @@
         <v>19912.47384409757</v>
       </c>
       <c r="L77" t="n">
-        <v>19798.69803270325</v>
+        <v>19991.56229426168</v>
       </c>
     </row>
     <row r="78">
@@ -4291,7 +4291,7 @@
         <v>19911.56521908249</v>
       </c>
       <c r="L78" t="n">
-        <v>19795.57228638097</v>
+        <v>19991.48095661303</v>
       </c>
     </row>
     <row r="79">
@@ -4329,7 +4329,7 @@
         <v>19913.54757024905</v>
       </c>
       <c r="L79" t="n">
-        <v>19791.61015096916</v>
+        <v>19987.93423836286</v>
       </c>
     </row>
     <row r="80">
@@ -4367,7 +4367,7 @@
         <v>19897.15161147579</v>
       </c>
       <c r="L80" t="n">
-        <v>19778.38504606764</v>
+        <v>19964.72999589449</v>
       </c>
     </row>
     <row r="81">
@@ -4405,7 +4405,7 @@
         <v>19912.04634880968</v>
       </c>
       <c r="L81" t="n">
-        <v>19771.775271</v>
+        <v>19939.53079880459</v>
       </c>
     </row>
     <row r="82">
@@ -4440,10 +4440,10 @@
         <v>19983.22704850882</v>
       </c>
       <c r="K82" t="n">
-        <v>19912.63032297828</v>
+        <v>19912.63032297827</v>
       </c>
       <c r="L82" t="n">
-        <v>19776.33375024558</v>
+        <v>19926.56280022661</v>
       </c>
     </row>
     <row r="83">
@@ -4481,7 +4481,7 @@
         <v>19913.60174619076</v>
       </c>
       <c r="L83" t="n">
-        <v>19779.67375183747</v>
+        <v>19902.62175769218</v>
       </c>
     </row>
     <row r="84">
@@ -4519,7 +4519,7 @@
         <v>19914.00786786958</v>
       </c>
       <c r="L84" t="n">
-        <v>19777.51215422846</v>
+        <v>19896.02388569507</v>
       </c>
     </row>
     <row r="85">
@@ -4557,7 +4557,7 @@
         <v>19913.61870446277</v>
       </c>
       <c r="L85" t="n">
-        <v>19776.46389048342</v>
+        <v>19878.2097503336</v>
       </c>
     </row>
     <row r="86">
@@ -4595,7 +4595,7 @@
         <v>19916.02241834482</v>
       </c>
       <c r="L86" t="n">
-        <v>19776.41032666602</v>
+        <v>19874.81182046511</v>
       </c>
     </row>
     <row r="87">
@@ -4633,7 +4633,7 @@
         <v>19900.09744777374</v>
       </c>
       <c r="L87" t="n">
-        <v>19783.97314091442</v>
+        <v>19879.87459313232</v>
       </c>
     </row>
     <row r="88">
@@ -4671,7 +4671,7 @@
         <v>19915.63182477363</v>
       </c>
       <c r="L88" t="n">
-        <v>19774.9660874412</v>
+        <v>19871.28970189405</v>
       </c>
     </row>
     <row r="89">
@@ -4709,7 +4709,7 @@
         <v>19916.60766135285</v>
       </c>
       <c r="L89" t="n">
-        <v>19746.03289712473</v>
+        <v>19875.9568958505</v>
       </c>
     </row>
     <row r="90">
@@ -4747,7 +4747,7 @@
         <v>19917.97967119776</v>
       </c>
       <c r="L90" t="n">
-        <v>19726.7356391747</v>
+        <v>19870.95601915007</v>
       </c>
     </row>
     <row r="91">
@@ -4782,10 +4782,10 @@
         <v>19977.08682571446</v>
       </c>
       <c r="K91" t="n">
-        <v>19918.7864068936</v>
+        <v>19918.78640689359</v>
       </c>
       <c r="L91" t="n">
-        <v>19698.81936785086</v>
+        <v>19867.14148181288</v>
       </c>
     </row>
     <row r="92">
@@ -4823,7 +4823,7 @@
         <v>19918.68532718088</v>
       </c>
       <c r="L92" t="n">
-        <v>19713.36650711971</v>
+        <v>19863.1265761217</v>
       </c>
     </row>
     <row r="93">
@@ -4858,10 +4858,10 @@
         <v>19975.95978128456</v>
       </c>
       <c r="K93" t="n">
-        <v>19921.32120245806</v>
+        <v>19921.32120245805</v>
       </c>
       <c r="L93" t="n">
-        <v>19693.93276062756</v>
+        <v>19857.31549708691</v>
       </c>
     </row>
     <row r="94">
@@ -4899,7 +4899,7 @@
         <v>19908.7437446771</v>
       </c>
       <c r="L94" t="n">
-        <v>19688.14231358169</v>
+        <v>19854.47820184057</v>
       </c>
     </row>
     <row r="95">
@@ -4937,7 +4937,7 @@
         <v>19924.68400097993</v>
       </c>
       <c r="L95" t="n">
-        <v>19681.27900311168</v>
+        <v>19842.2723965458</v>
       </c>
     </row>
     <row r="96">
@@ -4972,10 +4972,10 @@
         <v>19975.91984604851</v>
       </c>
       <c r="K96" t="n">
-        <v>19926.2192035824</v>
+        <v>19926.21920358239</v>
       </c>
       <c r="L96" t="n">
-        <v>19675.39174442547</v>
+        <v>19814.54260666033</v>
       </c>
     </row>
     <row r="97">
@@ -5013,7 +5013,7 @@
         <v>19928.14007444432</v>
       </c>
       <c r="L97" t="n">
-        <v>19668.11619094596</v>
+        <v>19815.41391142343</v>
       </c>
     </row>
     <row r="98">
@@ -5051,7 +5051,7 @@
         <v>19929.45494735033</v>
       </c>
       <c r="L98" t="n">
-        <v>19656.94238186649</v>
+        <v>19784.07114286182</v>
       </c>
     </row>
     <row r="99">
@@ -5089,7 +5089,7 @@
         <v>19929.49603918074</v>
       </c>
       <c r="L99" t="n">
-        <v>19643.94422884316</v>
+        <v>19768.29163902366</v>
       </c>
     </row>
     <row r="100">
@@ -5127,7 +5127,7 @@
         <v>19932.26225568006</v>
       </c>
       <c r="L100" t="n">
-        <v>19659.61343089436</v>
+        <v>19755.73429637911</v>
       </c>
     </row>
     <row r="101">
@@ -5165,7 +5165,7 @@
         <v>19916.53229290509</v>
       </c>
       <c r="L101" t="n">
-        <v>19652.53586515474</v>
+        <v>19740.7491241146</v>
       </c>
     </row>
     <row r="102">
@@ -5200,10 +5200,10 @@
         <v>19974.24496253144</v>
       </c>
       <c r="K102" t="n">
-        <v>19931.86083695979</v>
+        <v>19931.86083695978</v>
       </c>
       <c r="L102" t="n">
-        <v>19644.3596460048</v>
+        <v>19732.73994472116</v>
       </c>
     </row>
     <row r="103">
@@ -5241,7 +5241,7 @@
         <v>19932.66885755562</v>
       </c>
       <c r="L103" t="n">
-        <v>19646.64305170227</v>
+        <v>19732.25906067158</v>
       </c>
     </row>
     <row r="104">
@@ -5279,7 +5279,7 @@
         <v>19933.7297256075</v>
       </c>
       <c r="L104" t="n">
-        <v>19635.07525098813</v>
+        <v>19727.5089419904</v>
       </c>
     </row>
     <row r="105">
@@ -5317,7 +5317,7 @@
         <v>19934.08560360449</v>
       </c>
       <c r="L105" t="n">
-        <v>19631.73048816802</v>
+        <v>19707.30387652763</v>
       </c>
     </row>
     <row r="106">
@@ -5355,7 +5355,7 @@
         <v>19933.83593234565</v>
       </c>
       <c r="L106" t="n">
-        <v>19630.94528228178</v>
+        <v>19697.95679200615</v>
       </c>
     </row>
     <row r="107">
@@ -5393,7 +5393,7 @@
         <v>19936.00310585767</v>
       </c>
       <c r="L107" t="n">
-        <v>19628.44920839076</v>
+        <v>19704.62251150529</v>
       </c>
     </row>
     <row r="108">
@@ -5431,7 +5431,7 @@
         <v>19919.75528012405</v>
       </c>
       <c r="L108" t="n">
-        <v>19624.10776179793</v>
+        <v>19680.19741076914</v>
       </c>
     </row>
     <row r="109">
@@ -5469,7 +5469,7 @@
         <v>19934.64068947988</v>
       </c>
       <c r="L109" t="n">
-        <v>19595.89827816993</v>
+        <v>19680.684643123</v>
       </c>
     </row>
     <row r="110">
@@ -5507,7 +5507,7 @@
         <v>19935.09514506928</v>
       </c>
       <c r="L110" t="n">
-        <v>19595.3293113984</v>
+        <v>19684.87055626086</v>
       </c>
     </row>
     <row r="111">
@@ -5545,7 +5545,7 @@
         <v>19935.79165895323</v>
       </c>
       <c r="L111" t="n">
-        <v>19593.64224953469</v>
+        <v>19680.59656040105</v>
       </c>
     </row>
     <row r="112">
@@ -5583,7 +5583,7 @@
         <v>19935.87161715013</v>
       </c>
       <c r="L112" t="n">
-        <v>19571.24384494148</v>
+        <v>19695.40953491183</v>
       </c>
     </row>
     <row r="113">
@@ -5621,7 +5621,7 @@
         <v>19935.01471089543</v>
       </c>
       <c r="L113" t="n">
-        <v>19561.08854193073</v>
+        <v>19682.86806302799</v>
       </c>
     </row>
     <row r="114">
@@ -5659,7 +5659,7 @@
         <v>19936.89121619716</v>
       </c>
       <c r="L114" t="n">
-        <v>19548.78830560972</v>
+        <v>19680.86993425432</v>
       </c>
     </row>
     <row r="115">
@@ -5697,7 +5697,7 @@
         <v>19920.38881935044</v>
       </c>
       <c r="L115" t="n">
-        <v>19526.82317278396</v>
+        <v>19681.1258502708</v>
       </c>
     </row>
     <row r="116">
@@ -5735,7 +5735,7 @@
         <v>19935.04875333435</v>
       </c>
       <c r="L116" t="n">
-        <v>19524.25171277955</v>
+        <v>19672.81552319285</v>
       </c>
     </row>
     <row r="117">
@@ -5773,7 +5773,7 @@
         <v>19935.306500002</v>
       </c>
       <c r="L117" t="n">
-        <v>19517.37094447276</v>
+        <v>19641.96316113725</v>
       </c>
     </row>
     <row r="118">
@@ -5811,7 +5811,7 @@
         <v>19936.2924368882</v>
       </c>
       <c r="L118" t="n">
-        <v>19506.2998985689</v>
+        <v>19623.92405774268</v>
       </c>
     </row>
     <row r="119">
@@ -5849,7 +5849,7 @@
         <v>19936.43827241773</v>
       </c>
       <c r="L119" t="n">
-        <v>19490.1383061666</v>
+        <v>19623.15472261716</v>
       </c>
     </row>
     <row r="120">
@@ -5884,10 +5884,10 @@
         <v>19970.88684768321</v>
       </c>
       <c r="K120" t="n">
-        <v>19935.74886859932</v>
+        <v>19935.74886859931</v>
       </c>
       <c r="L120" t="n">
-        <v>19449.09493188864</v>
+        <v>19628.09846457902</v>
       </c>
     </row>
     <row r="121">
@@ -5925,7 +5925,7 @@
         <v>19937.88110047079</v>
       </c>
       <c r="L121" t="n">
-        <v>19450.87325062645</v>
+        <v>19621.71286400645</v>
       </c>
     </row>
     <row r="122">
@@ -5963,7 +5963,7 @@
         <v>19921.72583963364</v>
       </c>
       <c r="L122" t="n">
-        <v>19454.69453303694</v>
+        <v>19597.99004443181</v>
       </c>
     </row>
     <row r="123">
@@ -5998,10 +5998,10 @@
         <v>19970.71117902228</v>
       </c>
       <c r="K123" t="n">
-        <v>19936.71812946285</v>
+        <v>19936.71812946284</v>
       </c>
       <c r="L123" t="n">
-        <v>19443.12593878476</v>
+        <v>19595.5142057607</v>
       </c>
     </row>
     <row r="124">
@@ -6039,7 +6039,7 @@
         <v>19937.36629066299</v>
       </c>
       <c r="L124" t="n">
-        <v>19439.38520048488</v>
+        <v>19586.59801239255</v>
       </c>
     </row>
     <row r="125">
@@ -6077,7 +6077,7 @@
         <v>19945.21431932229</v>
       </c>
       <c r="L125" t="n">
-        <v>19433.18052658443</v>
+        <v>19564.17302427515</v>
       </c>
     </row>
     <row r="126">
@@ -6115,7 +6115,7 @@
         <v>19946.75674254822</v>
       </c>
       <c r="L126" t="n">
-        <v>19409.85090510644</v>
+        <v>19562.30582927736</v>
       </c>
     </row>
     <row r="127">
@@ -6153,7 +6153,7 @@
         <v>19947.83203404384</v>
       </c>
       <c r="L127" t="n">
-        <v>19409.40255611631</v>
+        <v>19554.86680696251</v>
       </c>
     </row>
     <row r="128">
@@ -6191,7 +6191,7 @@
         <v>19950.96412876838</v>
       </c>
       <c r="L128" t="n">
-        <v>19417.23795067995</v>
+        <v>19532.71241531525</v>
       </c>
     </row>
     <row r="129">
@@ -6229,7 +6229,7 @@
         <v>19934.55691360392</v>
       </c>
       <c r="L129" t="n">
-        <v>19411.75499962289</v>
+        <v>19541.48775568208</v>
       </c>
     </row>
     <row r="130">
@@ -6267,7 +6267,7 @@
         <v>19950.07067369605</v>
       </c>
       <c r="L130" t="n">
-        <v>19417.26374066611</v>
+        <v>19544.3516344526</v>
       </c>
     </row>
     <row r="131">
@@ -6302,10 +6302,10 @@
         <v>19972.92580424649</v>
       </c>
       <c r="K131" t="n">
-        <v>19951.15230110087</v>
+        <v>19951.15230110086</v>
       </c>
       <c r="L131" t="n">
-        <v>19432.69250069253</v>
+        <v>19536.91459598284</v>
       </c>
     </row>
     <row r="132">
@@ -6343,7 +6343,7 @@
         <v>19952.60525496696</v>
       </c>
       <c r="L132" t="n">
-        <v>19415.40368751063</v>
+        <v>19522.75152912323</v>
       </c>
     </row>
     <row r="133">
@@ -6381,7 +6381,7 @@
         <v>19953.45186444926</v>
       </c>
       <c r="L133" t="n">
-        <v>19418.46634755908</v>
+        <v>19506.48677677629</v>
       </c>
     </row>
     <row r="134">
@@ -6419,7 +6419,7 @@
         <v>19953.40348180765</v>
       </c>
       <c r="L134" t="n">
-        <v>19399.68409579416</v>
+        <v>19489.76018529263</v>
       </c>
     </row>
     <row r="135">
@@ -6457,7 +6457,7 @@
         <v>19956.09494569882</v>
       </c>
       <c r="L135" t="n">
-        <v>19407.62463414752</v>
+        <v>19482.89251036342</v>
       </c>
     </row>
     <row r="136">
@@ -6495,7 +6495,7 @@
         <v>19940.42687364142</v>
       </c>
       <c r="L136" t="n">
-        <v>19424.21235647495</v>
+        <v>19466.8777224977</v>
       </c>
     </row>
     <row r="137">
@@ -6533,7 +6533,7 @@
         <v>19956.20087339537</v>
       </c>
       <c r="L137" t="n">
-        <v>19424.30242304199</v>
+        <v>19459.92712284377</v>
       </c>
     </row>
     <row r="138">
@@ -6571,7 +6571,7 @@
         <v>19957.35631819045</v>
       </c>
       <c r="L138" t="n">
-        <v>19409.71163918118</v>
+        <v>19457.16561047984</v>
       </c>
     </row>
     <row r="139">
@@ -6609,7 +6609,7 @@
         <v>19958.86547178404</v>
       </c>
       <c r="L139" t="n">
-        <v>19396.44130261163</v>
+        <v>19460.93174199686</v>
       </c>
     </row>
     <row r="140">
@@ -6647,7 +6647,7 @@
         <v>19960.4207594911</v>
       </c>
       <c r="L140" t="n">
-        <v>19403.08083535561</v>
+        <v>19468.22157916101</v>
       </c>
     </row>
     <row r="141">
@@ -6682,10 +6682,10 @@
         <v>19973.9963476185</v>
       </c>
       <c r="K141" t="n">
-        <v>19959.77949050159</v>
+        <v>19959.77949050158</v>
       </c>
       <c r="L141" t="n">
-        <v>19395.07840103547</v>
+        <v>19462.84773958385</v>
       </c>
     </row>
     <row r="142">
@@ -6723,7 +6723,7 @@
         <v>19962.52732243299</v>
       </c>
       <c r="L142" t="n">
-        <v>19401.52788141991</v>
+        <v>19478.55384115371</v>
       </c>
     </row>
     <row r="143">
@@ -6761,7 +6761,7 @@
         <v>19946.86445918341</v>
       </c>
       <c r="L143" t="n">
-        <v>19398.05496220705</v>
+        <v>19489.74193391781</v>
       </c>
     </row>
     <row r="144">
@@ -6799,7 +6799,7 @@
         <v>19962.34727368368</v>
       </c>
       <c r="L144" t="n">
-        <v>19394.47094766921</v>
+        <v>19484.23993794789</v>
       </c>
     </row>
     <row r="145">
@@ -6837,7 +6837,7 @@
         <v>19963.40395296688</v>
       </c>
       <c r="L145" t="n">
-        <v>19383.18009172949</v>
+        <v>19489.38087411161</v>
       </c>
     </row>
     <row r="146">
@@ -6875,7 +6875,7 @@
         <v>19964.78911948694</v>
       </c>
       <c r="L146" t="n">
-        <v>19377.98360790328</v>
+        <v>19479.89492043389</v>
       </c>
     </row>
     <row r="147">
@@ -6913,7 +6913,7 @@
         <v>19965.52625445218</v>
       </c>
       <c r="L147" t="n">
-        <v>19392.80967579165</v>
+        <v>19495.59983169671</v>
       </c>
     </row>
     <row r="148">
@@ -6951,7 +6951,7 @@
         <v>19965.35710738078</v>
       </c>
       <c r="L148" t="n">
-        <v>19387.90680103862</v>
+        <v>19505.95034506422</v>
       </c>
     </row>
     <row r="149">
@@ -6986,10 +6986,10 @@
         <v>19975.03204979966</v>
       </c>
       <c r="K149" t="n">
-        <v>19968.2092231427</v>
+        <v>19968.20922314269</v>
       </c>
       <c r="L149" t="n">
-        <v>19383.99545206108</v>
+        <v>19498.69542357363</v>
       </c>
     </row>
     <row r="150">
@@ -7027,7 +7027,7 @@
         <v>19952.48906218756</v>
       </c>
       <c r="L150" t="n">
-        <v>19378.20341793915</v>
+        <v>19523.85018253353</v>
       </c>
     </row>
     <row r="151">
@@ -7065,7 +7065,7 @@
         <v>19967.94056148678</v>
       </c>
       <c r="L151" t="n">
-        <v>19359.93379174524</v>
+        <v>19505.54087943784</v>
       </c>
     </row>
     <row r="152">
@@ -7103,7 +7103,7 @@
         <v>19969.00389475381</v>
       </c>
       <c r="L152" t="n">
-        <v>19353.23434687958</v>
+        <v>19491.27663647869</v>
       </c>
     </row>
     <row r="153">
@@ -7141,7 +7141,7 @@
         <v>19970.44486281765</v>
       </c>
       <c r="L153" t="n">
-        <v>19347.82876578099</v>
+        <v>19497.43449163504</v>
       </c>
     </row>
     <row r="154">
@@ -7179,7 +7179,7 @@
         <v>19971.23855591377</v>
       </c>
       <c r="L154" t="n">
-        <v>19340.47425526693</v>
+        <v>19478.66136555753</v>
       </c>
     </row>
     <row r="155">
@@ -7217,7 +7217,7 @@
         <v>19971.14587986551</v>
       </c>
       <c r="L155" t="n">
-        <v>19340.00448074984</v>
+        <v>19479.34618888227</v>
       </c>
     </row>
     <row r="156">
@@ -7255,7 +7255,7 @@
         <v>19973.42959392598</v>
       </c>
       <c r="L156" t="n">
-        <v>19344.50304787373</v>
+        <v>19470.94024047102</v>
       </c>
     </row>
     <row r="157">
@@ -7293,7 +7293,7 @@
         <v>19958.0344982799</v>
       </c>
       <c r="L157" t="n">
-        <v>19352.8582098507</v>
+        <v>19459.73707048424</v>
       </c>
     </row>
     <row r="158">
@@ -7331,7 +7331,7 @@
         <v>19973.8495811204</v>
       </c>
       <c r="L158" t="n">
-        <v>19344.51296709917</v>
+        <v>19439.02771159984</v>
       </c>
     </row>
     <row r="159">
@@ -7369,7 +7369,7 @@
         <v>19975.31306514038</v>
       </c>
       <c r="L159" t="n">
-        <v>19337.75559395692</v>
+        <v>19447.76059768176</v>
       </c>
     </row>
     <row r="160">
@@ -7407,7 +7407,7 @@
         <v>19977.1955528791</v>
       </c>
       <c r="L160" t="n">
-        <v>19330.14635773343</v>
+        <v>19440.78658865578</v>
       </c>
     </row>
     <row r="161">
@@ -7445,7 +7445,7 @@
         <v>19978.32952595482</v>
       </c>
       <c r="L161" t="n">
-        <v>19298.47982565328</v>
+        <v>19423.81082622893</v>
       </c>
     </row>
     <row r="162">
@@ -7480,10 +7480,10 @@
         <v>19979.41877061055</v>
       </c>
       <c r="K162" t="n">
-        <v>19978.54326100232</v>
+        <v>19978.54326100231</v>
       </c>
       <c r="L162" t="n">
-        <v>19295.56039922027</v>
+        <v>19410.80354751819</v>
       </c>
     </row>
     <row r="163">
@@ -7521,7 +7521,7 @@
         <v>19981.51705553334</v>
       </c>
       <c r="L163" t="n">
-        <v>19287.02589764725</v>
+        <v>19420.70293451245</v>
       </c>
     </row>
     <row r="164">
@@ -7559,7 +7559,7 @@
         <v>19966.12637669535</v>
       </c>
       <c r="L164" t="n">
-        <v>19276.9864511897</v>
+        <v>19412.54139581618</v>
       </c>
     </row>
     <row r="165">
@@ -7594,10 +7594,10 @@
         <v>19980.1825980851</v>
       </c>
       <c r="K165" t="n">
-        <v>19981.88933936812</v>
+        <v>19981.88933936811</v>
       </c>
       <c r="L165" t="n">
-        <v>19273.41354618435</v>
+        <v>19406.28593548144</v>
       </c>
     </row>
     <row r="166">
@@ -7635,7 +7635,7 @@
         <v>19983.24048053359</v>
       </c>
       <c r="L166" t="n">
-        <v>19263.82522610005</v>
+        <v>19404.00927485727</v>
       </c>
     </row>
     <row r="167">
@@ -7673,7 +7673,7 @@
         <v>19984.94001048807</v>
       </c>
       <c r="L167" t="n">
-        <v>19261.96953740376</v>
+        <v>19397.58955214917</v>
       </c>
     </row>
     <row r="168">
@@ -7711,7 +7711,7 @@
         <v>19986.26750272958</v>
       </c>
       <c r="L168" t="n">
-        <v>19266.82321279859</v>
+        <v>19392.49464119152</v>
       </c>
     </row>
     <row r="169">
@@ -7749,7 +7749,7 @@
         <v>19986.52670468045</v>
       </c>
       <c r="L169" t="n">
-        <v>19265.39762171761</v>
+        <v>19364.36768551922</v>
       </c>
     </row>
     <row r="170">
@@ -7787,7 +7787,7 @@
         <v>19989.54489709842</v>
       </c>
       <c r="L170" t="n">
-        <v>19252.92875856403</v>
+        <v>19360.73169424005</v>
       </c>
     </row>
     <row r="171">
@@ -7822,10 +7822,10 @@
         <v>19981.71346685263</v>
       </c>
       <c r="K171" t="n">
-        <v>19974.20318542437</v>
+        <v>19974.20318542436</v>
       </c>
       <c r="L171" t="n">
-        <v>19239.69135382296</v>
+        <v>19344.16579420859</v>
       </c>
     </row>
     <row r="172">
@@ -7863,7 +7863,7 @@
         <v>19990.0318955944</v>
       </c>
       <c r="L172" t="n">
-        <v>19220.34330943865</v>
+        <v>19345.7389833642</v>
       </c>
     </row>
     <row r="173">
@@ -7901,7 +7901,7 @@
         <v>19991.43189275538</v>
       </c>
       <c r="L173" t="n">
-        <v>19208.05696003326</v>
+        <v>19333.17410210831</v>
       </c>
     </row>
     <row r="174">
@@ -7939,7 +7939,7 @@
         <v>19993.1426375361</v>
       </c>
       <c r="L174" t="n">
-        <v>19202.21136209392</v>
+        <v>19337.73694581308</v>
       </c>
     </row>
     <row r="175">
@@ -7977,7 +7977,7 @@
         <v>19994.2167887344</v>
       </c>
       <c r="L175" t="n">
-        <v>19196.07493246452</v>
+        <v>19343.80116348123</v>
       </c>
     </row>
     <row r="176">
@@ -8015,7 +8015,7 @@
         <v>19994.3774698434</v>
       </c>
       <c r="L176" t="n">
-        <v>19183.40530418793</v>
+        <v>19337.79289024459</v>
       </c>
     </row>
     <row r="177">
@@ -8050,10 +8050,10 @@
         <v>19983.15870737332</v>
       </c>
       <c r="K177" t="n">
-        <v>19997.26280912948</v>
+        <v>19997.26280912947</v>
       </c>
       <c r="L177" t="n">
-        <v>19172.70126962555</v>
+        <v>19336.0149682758</v>
       </c>
     </row>
     <row r="178">
@@ -8091,7 +8091,7 @@
         <v>19981.74872845055</v>
       </c>
       <c r="L178" t="n">
-        <v>19144.67469651476</v>
+        <v>19319.84345664805</v>
       </c>
     </row>
     <row r="179">
@@ -8129,7 +8129,7 @@
         <v>19997.36965380231</v>
       </c>
       <c r="L179" t="n">
-        <v>19124.59124075595</v>
+        <v>19306.64652234679</v>
       </c>
     </row>
     <row r="180">
@@ -8164,10 +8164,10 @@
         <v>19983.95340569833</v>
       </c>
       <c r="K180" t="n">
-        <v>19998.51187301085</v>
+        <v>19998.51187301084</v>
       </c>
       <c r="L180" t="n">
-        <v>19116.67510369719</v>
+        <v>19311.49027851617</v>
       </c>
     </row>
     <row r="181">
@@ -8205,7 +8205,7 @@
         <v>20000.10294879927</v>
       </c>
       <c r="L181" t="n">
-        <v>19102.00159349617</v>
+        <v>19299.50983802351</v>
       </c>
     </row>
     <row r="182">
@@ -8243,7 +8243,7 @@
         <v>20001.07160236097</v>
       </c>
       <c r="L182" t="n">
-        <v>19079.44527483388</v>
+        <v>19283.07288792285</v>
       </c>
     </row>
     <row r="183">
@@ -8281,7 +8281,7 @@
         <v>20001.15299494529</v>
       </c>
       <c r="L183" t="n">
-        <v>19069.7506206528</v>
+        <v>19269.42244663424</v>
       </c>
     </row>
     <row r="184">
@@ -8319,7 +8319,7 @@
         <v>19794.93103559126</v>
       </c>
       <c r="L184" t="n">
-        <v>19052.3949518914</v>
+        <v>19252.93788425144</v>
       </c>
     </row>
     <row r="185">
@@ -8357,7 +8357,7 @@
         <v>19755.76368484109</v>
       </c>
       <c r="L185" t="n">
-        <v>19030.87717613322</v>
+        <v>19253.73935766741</v>
       </c>
     </row>
     <row r="186">
@@ -8395,7 +8395,7 @@
         <v>19670.95069306667</v>
       </c>
       <c r="L186" t="n">
-        <v>19025.112320689</v>
+        <v>19257.21346718732</v>
       </c>
     </row>
     <row r="187">
@@ -8433,7 +8433,7 @@
         <v>19616.56685422423</v>
       </c>
       <c r="L187" t="n">
-        <v>19004.46465938687</v>
+        <v>19249.41576568037</v>
       </c>
     </row>
     <row r="188">
@@ -8471,7 +8471,7 @@
         <v>19618.18201008036</v>
       </c>
       <c r="L188" t="n">
-        <v>18985.00254390994</v>
+        <v>19221.09042549918</v>
       </c>
     </row>
     <row r="189">
@@ -8506,10 +8506,10 @@
         <v>20006.91569066012</v>
       </c>
       <c r="K189" t="n">
-        <v>19466.90229182115</v>
+        <v>19466.90229182114</v>
       </c>
       <c r="L189" t="n">
-        <v>18956.60816591965</v>
+        <v>19212.41626123189</v>
       </c>
     </row>
     <row r="190">
@@ -8547,7 +8547,7 @@
         <v>19468.04410151112</v>
       </c>
       <c r="L190" t="n">
-        <v>18938.4536027409</v>
+        <v>19186.0696081425</v>
       </c>
     </row>
     <row r="191">
@@ -8585,7 +8585,7 @@
         <v>19261.13759908554</v>
       </c>
       <c r="L191" t="n">
-        <v>18926.51799714725</v>
+        <v>19193.39039329004</v>
       </c>
     </row>
     <row r="192">
@@ -8623,7 +8623,7 @@
         <v>19245.7093664369</v>
       </c>
       <c r="L192" t="n">
-        <v>18937.92867733035</v>
+        <v>19172.51240757307</v>
       </c>
     </row>
     <row r="193">
@@ -8661,7 +8661,7 @@
         <v>19150.69951844309</v>
       </c>
       <c r="L193" t="n">
-        <v>18927.7914273099</v>
+        <v>19171.14196738557</v>
       </c>
     </row>
     <row r="194">
@@ -8699,7 +8699,7 @@
         <v>18810.88531224359</v>
       </c>
       <c r="L194" t="n">
-        <v>18915.00395863502</v>
+        <v>19168.76809835204</v>
       </c>
     </row>
     <row r="195">
@@ -8737,7 +8737,7 @@
         <v>18812.66731193441</v>
       </c>
       <c r="L195" t="n">
-        <v>18890.96392223064</v>
+        <v>19143.08345436885</v>
       </c>
     </row>
     <row r="196">
@@ -8775,7 +8775,7 @@
         <v>18345.0994472923</v>
       </c>
       <c r="L196" t="n">
-        <v>18868.25068142181</v>
+        <v>19130.50706681145</v>
       </c>
     </row>
     <row r="197">
@@ -8813,7 +8813,7 @@
         <v>18343.9475727797</v>
       </c>
       <c r="L197" t="n">
-        <v>18844.21679493721</v>
+        <v>19130.86634115707</v>
       </c>
     </row>
     <row r="198">
@@ -8851,7 +8851,7 @@
         <v>17800.22416741873</v>
       </c>
       <c r="L198" t="n">
-        <v>18824.87410693464</v>
+        <v>19125.23023725913</v>
       </c>
     </row>
     <row r="199">
@@ -8889,7 +8889,7 @@
         <v>17766.26627645311</v>
       </c>
       <c r="L199" t="n">
-        <v>18815.53852871468</v>
+        <v>19112.67706068926</v>
       </c>
     </row>
     <row r="200">
@@ -8927,7 +8927,7 @@
         <v>17784.34389249788</v>
       </c>
       <c r="L200" t="n">
-        <v>18813.86396507503</v>
+        <v>19102.00635472438</v>
       </c>
     </row>
     <row r="201">
@@ -8965,7 +8965,7 @@
         <v>17798.07952540956</v>
       </c>
       <c r="L201" t="n">
-        <v>18781.74174377793</v>
+        <v>19110.63667601519</v>
       </c>
     </row>
     <row r="202">
@@ -9000,10 +9000,10 @@
         <v>19986.29805811196</v>
       </c>
       <c r="K202" t="n">
-        <v>17802.56327606958</v>
+        <v>17802.56327606957</v>
       </c>
       <c r="L202" t="n">
-        <v>18752.89108141716</v>
+        <v>19100.15760948591</v>
       </c>
     </row>
     <row r="203">
@@ -9041,7 +9041,7 @@
         <v>17799.21490314069</v>
       </c>
       <c r="L203" t="n">
-        <v>18740.22938852093</v>
+        <v>19090.48080991063</v>
       </c>
     </row>
     <row r="204">
@@ -9079,7 +9079,7 @@
         <v>17799.91245866494</v>
       </c>
       <c r="L204" t="n">
-        <v>18727.0419766761</v>
+        <v>19085.81936910493</v>
       </c>
     </row>
     <row r="205">
@@ -9117,7 +9117,7 @@
         <v>17782.31526569603</v>
       </c>
       <c r="L205" t="n">
-        <v>18707.07834516066</v>
+        <v>19065.32684448877</v>
       </c>
     </row>
     <row r="206">
@@ -9155,7 +9155,7 @@
         <v>17148.92978580346</v>
       </c>
       <c r="L206" t="n">
-        <v>18682.59809353103</v>
+        <v>19055.77621746115</v>
       </c>
     </row>
     <row r="207">
@@ -9193,7 +9193,7 @@
         <v>17165.16459764338</v>
       </c>
       <c r="L207" t="n">
-        <v>18653.18838362417</v>
+        <v>19038.56318716166</v>
       </c>
     </row>
     <row r="208">
@@ -9231,7 +9231,7 @@
         <v>17167.05136664949</v>
       </c>
       <c r="L208" t="n">
-        <v>18622.93137347979</v>
+        <v>19028.07697879005</v>
       </c>
     </row>
     <row r="209">
@@ -9269,7 +9269,7 @@
         <v>17177.40490116745</v>
       </c>
       <c r="L209" t="n">
-        <v>18591.74810606333</v>
+        <v>19032.67017532469</v>
       </c>
     </row>
     <row r="210">
@@ -9307,7 +9307,7 @@
         <v>17197.76069395356</v>
       </c>
       <c r="L210" t="n">
-        <v>18564.09211521518</v>
+        <v>19020.6915202926</v>
       </c>
     </row>
     <row r="211">
@@ -9345,7 +9345,7 @@
         <v>17196.03505326432</v>
       </c>
       <c r="L211" t="n">
-        <v>18555.04955091486</v>
+        <v>19006.25031835151</v>
       </c>
     </row>
     <row r="212">
@@ -9383,7 +9383,7 @@
         <v>17194.78686412971</v>
       </c>
       <c r="L212" t="n">
-        <v>18532.65789139496</v>
+        <v>18981.74090419906</v>
       </c>
     </row>
     <row r="213">
@@ -9421,7 +9421,7 @@
         <v>17178.35861018903</v>
       </c>
       <c r="L213" t="n">
-        <v>18546.641023505</v>
+        <v>18953.64628520172</v>
       </c>
     </row>
     <row r="214">
@@ -9459,7 +9459,7 @@
         <v>17193.17475803385</v>
       </c>
       <c r="L214" t="n">
-        <v>18551.36178127886</v>
+        <v>18951.01491307563</v>
       </c>
     </row>
     <row r="215">
@@ -9497,7 +9497,7 @@
         <v>17199.55854159746</v>
       </c>
       <c r="L215" t="n">
-        <v>18527.07773192853</v>
+        <v>18935.15883281704</v>
       </c>
     </row>
     <row r="216">
@@ -9535,7 +9535,7 @@
         <v>17201.21334807512</v>
       </c>
       <c r="L216" t="n">
-        <v>18501.17050052636</v>
+        <v>18921.36198376086</v>
       </c>
     </row>
     <row r="217">
@@ -9573,7 +9573,7 @@
         <v>17201.86785808764</v>
       </c>
       <c r="L217" t="n">
-        <v>18487.05663302495</v>
+        <v>18920.2153212994</v>
       </c>
     </row>
     <row r="218">
@@ -9611,7 +9611,7 @@
         <v>17201.50726273744</v>
       </c>
       <c r="L218" t="n">
-        <v>18490.05382618546</v>
+        <v>18890.90797779914</v>
       </c>
     </row>
     <row r="219">
@@ -9649,7 +9649,7 @@
         <v>17203.78038066504</v>
       </c>
       <c r="L219" t="n">
-        <v>18476.39148182632</v>
+        <v>18883.38107114684</v>
       </c>
     </row>
     <row r="220">
@@ -9687,7 +9687,7 @@
         <v>17187.71567287916</v>
       </c>
       <c r="L220" t="n">
-        <v>18483.82971060314</v>
+        <v>18859.39916140357</v>
       </c>
     </row>
     <row r="221">
@@ -9725,7 +9725,7 @@
         <v>17202.71692099392</v>
       </c>
       <c r="L221" t="n">
-        <v>18488.5750680561</v>
+        <v>18855.53740855326</v>
       </c>
     </row>
     <row r="222">
@@ -9763,7 +9763,7 @@
         <v>17201.68186052746</v>
       </c>
       <c r="L222" t="n">
-        <v>18469.39128604516</v>
+        <v>18845.96813338181</v>
       </c>
     </row>
     <row r="223">
@@ -9801,7 +9801,7 @@
         <v>17192.42888958672</v>
       </c>
       <c r="L223" t="n">
-        <v>18462.55098817818</v>
+        <v>18829.48218230745</v>
       </c>
     </row>
     <row r="224">
@@ -9839,7 +9839,7 @@
         <v>17173.70907384755</v>
       </c>
       <c r="L224" t="n">
-        <v>18463.57068455394</v>
+        <v>18817.24185810812</v>
       </c>
     </row>
     <row r="225">
@@ -9877,7 +9877,7 @@
         <v>17174.85987109139</v>
       </c>
       <c r="L225" t="n">
-        <v>18439.85758582024</v>
+        <v>18803.81698000613</v>
       </c>
     </row>
     <row r="226">
@@ -9915,7 +9915,7 @@
         <v>17188.75806016918</v>
       </c>
       <c r="L226" t="n">
-        <v>18422.68482757605</v>
+        <v>18800.84756067687</v>
       </c>
     </row>
     <row r="227">
@@ -9953,7 +9953,7 @@
         <v>17174.50393326148</v>
       </c>
       <c r="L227" t="n">
-        <v>18398.77354271795</v>
+        <v>18784.98850465064</v>
       </c>
     </row>
     <row r="228">
@@ -9991,7 +9991,7 @@
         <v>17184.23391828504</v>
       </c>
       <c r="L228" t="n">
-        <v>18410.90019259368</v>
+        <v>18770.14398700295</v>
       </c>
     </row>
     <row r="229">
@@ -10029,7 +10029,7 @@
         <v>17184.42078933926</v>
       </c>
       <c r="L229" t="n">
-        <v>18392.91901747571</v>
+        <v>18762.99778022324</v>
       </c>
     </row>
     <row r="230">
@@ -10067,7 +10067,7 @@
         <v>17184.9519211379</v>
       </c>
       <c r="L230" t="n">
-        <v>18374.4867159845</v>
+        <v>18756.6018636562</v>
       </c>
     </row>
     <row r="231">
@@ -10105,7 +10105,7 @@
         <v>17184.87074459143</v>
       </c>
       <c r="L231" t="n">
-        <v>18358.75740342709</v>
+        <v>18750.10695321922</v>
       </c>
     </row>
     <row r="232">
@@ -10143,7 +10143,7 @@
         <v>17183.95604624946</v>
       </c>
       <c r="L232" t="n">
-        <v>18350.31217488309</v>
+        <v>18735.93912513139</v>
       </c>
     </row>
     <row r="233">
@@ -10181,7 +10181,7 @@
         <v>17185.82406620883</v>
       </c>
       <c r="L233" t="n">
-        <v>18335.64937744554</v>
+        <v>18705.63013824567</v>
       </c>
     </row>
     <row r="234">
@@ -10219,7 +10219,7 @@
         <v>17177.57984659892</v>
       </c>
       <c r="L234" t="n">
-        <v>18321.68211609622</v>
+        <v>18689.89031130929</v>
       </c>
     </row>
     <row r="235">
@@ -10257,7 +10257,7 @@
         <v>17211.21565129526</v>
       </c>
       <c r="L235" t="n">
-        <v>18317.2585383167</v>
+        <v>18669.87490143703</v>
       </c>
     </row>
     <row r="236">
@@ -10295,7 +10295,7 @@
         <v>17209.36979572641</v>
       </c>
       <c r="L236" t="n">
-        <v>18308.14792812983</v>
+        <v>18649.797595598</v>
       </c>
     </row>
     <row r="237">
@@ -10330,10 +10330,10 @@
         <v>20025.10029644799</v>
       </c>
       <c r="K237" t="n">
-        <v>17205.72435851337</v>
+        <v>17205.72435851336</v>
       </c>
       <c r="L237" t="n">
-        <v>18304.95988907175</v>
+        <v>18648.01471401648</v>
       </c>
     </row>
     <row r="238">
@@ -10371,7 +10371,7 @@
         <v>17204.81083845373</v>
       </c>
       <c r="L238" t="n">
-        <v>18319.54948262551</v>
+        <v>18622.31697665571</v>
       </c>
     </row>
     <row r="239">
@@ -10409,7 +10409,7 @@
         <v>17203.13302590928</v>
       </c>
       <c r="L239" t="n">
-        <v>18321.6083170589</v>
+        <v>18592.96241764233</v>
       </c>
     </row>
     <row r="240">
@@ -10447,7 +10447,7 @@
         <v>17206.50272957312</v>
       </c>
       <c r="L240" t="n">
-        <v>18321.02288437313</v>
+        <v>18581.99413491409</v>
       </c>
     </row>
     <row r="241">
@@ -10485,7 +10485,7 @@
         <v>17190.50942997256</v>
       </c>
       <c r="L241" t="n">
-        <v>18294.72761287155</v>
+        <v>18565.55480419932</v>
       </c>
     </row>
     <row r="242">
@@ -10523,7 +10523,7 @@
         <v>17205.74582586927</v>
       </c>
       <c r="L242" t="n">
-        <v>18289.19407376471</v>
+        <v>18543.23991948437</v>
       </c>
     </row>
     <row r="243">
@@ -10561,7 +10561,7 @@
         <v>17206.63535986682</v>
       </c>
       <c r="L243" t="n">
-        <v>18289.85429741034</v>
+        <v>18499.90421220603</v>
       </c>
     </row>
     <row r="244">
@@ -10599,7 +10599,7 @@
         <v>17207.96466291193</v>
       </c>
       <c r="L244" t="n">
-        <v>18274.9554224072</v>
+        <v>18481.91589524574</v>
       </c>
     </row>
     <row r="245">
@@ -10637,7 +10637,7 @@
         <v>17211.63384221703</v>
       </c>
       <c r="L245" t="n">
-        <v>18249.47392416114</v>
+        <v>18447.08056740489</v>
       </c>
     </row>
     <row r="246">
@@ -10675,7 +10675,7 @@
         <v>17211.09504011208</v>
       </c>
       <c r="L246" t="n">
-        <v>18235.3884256445</v>
+        <v>18415.48803274657</v>
       </c>
     </row>
     <row r="247">
@@ -10713,7 +10713,7 @@
         <v>17212.28839657578</v>
       </c>
       <c r="L247" t="n">
-        <v>18211.90327071153</v>
+        <v>18399.24272208151</v>
       </c>
     </row>
     <row r="248">
@@ -10751,7 +10751,7 @@
         <v>17186.07290183342</v>
       </c>
       <c r="L248" t="n">
-        <v>18205.70276288576</v>
+        <v>18385.43694572243</v>
       </c>
     </row>
     <row r="249">
@@ -10786,10 +10786,10 @@
         <v>19968.76352250954</v>
       </c>
       <c r="K249" t="n">
-        <v>17182.19082235566</v>
+        <v>17182.19082235565</v>
       </c>
       <c r="L249" t="n">
-        <v>18184.41352608183</v>
+        <v>18385.55419096719</v>
       </c>
     </row>
     <row r="250">
@@ -10827,7 +10827,7 @@
         <v>17184.97888771545</v>
       </c>
       <c r="L250" t="n">
-        <v>18161.73341548599</v>
+        <v>18387.7290803383</v>
       </c>
     </row>
     <row r="251">
@@ -10865,7 +10865,7 @@
         <v>17198.14863940189</v>
       </c>
       <c r="L251" t="n">
-        <v>18150.9779993358</v>
+        <v>18390.56399497052</v>
       </c>
     </row>
     <row r="252">
@@ -10903,7 +10903,7 @@
         <v>17201.09706844342</v>
       </c>
       <c r="L252" t="n">
-        <v>18132.29017859712</v>
+        <v>18382.8827451703</v>
       </c>
     </row>
     <row r="253">
@@ -10941,7 +10941,7 @@
         <v>17195.92560544687</v>
       </c>
       <c r="L253" t="n">
-        <v>18124.18418756334</v>
+        <v>18352.72314181979</v>
       </c>
     </row>
     <row r="254">
@@ -10979,7 +10979,7 @@
         <v>17198.40731066308</v>
       </c>
       <c r="L254" t="n">
-        <v>18123.01748826648</v>
+        <v>18345.0716496959</v>
       </c>
     </row>
     <row r="255">
@@ -11017,7 +11017,7 @@
         <v>17182.50257279638</v>
       </c>
       <c r="L255" t="n">
-        <v>18096.03640151761</v>
+        <v>18333.90974368697</v>
       </c>
     </row>
     <row r="256">
@@ -11055,7 +11055,7 @@
         <v>17197.74440275119</v>
       </c>
       <c r="L256" t="n">
-        <v>18088.9237217199</v>
+        <v>18329.04476037514</v>
       </c>
     </row>
     <row r="257">
@@ -11093,7 +11093,7 @@
         <v>17198.26901182009</v>
       </c>
       <c r="L257" t="n">
-        <v>18064.61249369186</v>
+        <v>18300.60058787312</v>
       </c>
     </row>
     <row r="258">
@@ -11131,7 +11131,7 @@
         <v>17199.30125265521</v>
       </c>
       <c r="L258" t="n">
-        <v>18057.75850729376</v>
+        <v>18274.13569761641</v>
       </c>
     </row>
     <row r="259">
@@ -11169,7 +11169,7 @@
         <v>17199.65705827202</v>
       </c>
       <c r="L259" t="n">
-        <v>18042.80051370697</v>
+        <v>18249.22475321795</v>
       </c>
     </row>
     <row r="260">
@@ -11207,7 +11207,7 @@
         <v>17207.26300919858</v>
       </c>
       <c r="L260" t="n">
-        <v>18029.75137586485</v>
+        <v>18244.43337055892</v>
       </c>
     </row>
     <row r="261">
@@ -11245,7 +11245,7 @@
         <v>17229.4370432733</v>
       </c>
       <c r="L261" t="n">
-        <v>18020.17595077362</v>
+        <v>18223.98091961355</v>
       </c>
     </row>
     <row r="262">
@@ -11283,7 +11283,7 @@
         <v>17209.6433416914</v>
       </c>
       <c r="L262" t="n">
-        <v>18012.14237008558</v>
+        <v>18195.59725438674</v>
       </c>
     </row>
     <row r="263">
@@ -11321,7 +11321,7 @@
         <v>17218.73358461299</v>
       </c>
       <c r="L263" t="n">
-        <v>18015.87775200373</v>
+        <v>18176.90050634516</v>
       </c>
     </row>
     <row r="264">
@@ -11359,7 +11359,7 @@
         <v>17219.11792742672</v>
       </c>
       <c r="L264" t="n">
-        <v>18018.00463232367</v>
+        <v>18166.64462238839</v>
       </c>
     </row>
     <row r="265">
@@ -11397,7 +11397,7 @@
         <v>17218.75303939423</v>
       </c>
       <c r="L265" t="n">
-        <v>17995.93376055467</v>
+        <v>18146.60203383842</v>
       </c>
     </row>
     <row r="266">
@@ -11435,7 +11435,7 @@
         <v>17219.88250001871</v>
       </c>
       <c r="L266" t="n">
-        <v>17988.54651659665</v>
+        <v>18124.22703861726</v>
       </c>
     </row>
     <row r="267">
@@ -11473,7 +11473,7 @@
         <v>17219.02953031731</v>
       </c>
       <c r="L267" t="n">
-        <v>17970.84565878976</v>
+        <v>18111.24713696874</v>
       </c>
     </row>
     <row r="268">
@@ -11511,7 +11511,7 @@
         <v>17220.91728476625</v>
       </c>
       <c r="L268" t="n">
-        <v>17962.21533749894</v>
+        <v>18081.94891915589</v>
       </c>
     </row>
     <row r="269">
@@ -11549,7 +11549,7 @@
         <v>17204.15724828567</v>
       </c>
       <c r="L269" t="n">
-        <v>17967.16007138335</v>
+        <v>18061.40441779839</v>
       </c>
     </row>
     <row r="270">
@@ -11587,7 +11587,7 @@
         <v>17218.7454544934</v>
       </c>
       <c r="L270" t="n">
-        <v>17935.00571179582</v>
+        <v>18065.88155939531</v>
       </c>
     </row>
     <row r="271">
@@ -11625,7 +11625,7 @@
         <v>17218.91179585963</v>
       </c>
       <c r="L271" t="n">
-        <v>17930.25420442308</v>
+        <v>18058.41396971118</v>
       </c>
     </row>
     <row r="272">
@@ -11663,7 +11663,7 @@
         <v>17219.41730008846</v>
       </c>
       <c r="L272" t="n">
-        <v>17930.99774956245</v>
+        <v>18058.77621982444</v>
       </c>
     </row>
     <row r="273">
@@ -11698,10 +11698,10 @@
         <v>20024.70212127192</v>
       </c>
       <c r="K273" t="n">
-        <v>17216.37271998676</v>
+        <v>17216.37271998675</v>
       </c>
       <c r="L273" t="n">
-        <v>17918.88141568119</v>
+        <v>18036.51251831278</v>
       </c>
     </row>
     <row r="274">
@@ -11739,7 +11739,7 @@
         <v>17215.42757853292</v>
       </c>
       <c r="L274" t="n">
-        <v>17904.40609160456</v>
+        <v>18026.1471261071</v>
       </c>
     </row>
     <row r="275">
@@ -11777,7 +11777,7 @@
         <v>17208.56007852581</v>
       </c>
       <c r="L275" t="n">
-        <v>17882.33978267926</v>
+        <v>18028.14783387939</v>
       </c>
     </row>
     <row r="276">
@@ -11815,7 +11815,7 @@
         <v>17171.4425197866</v>
       </c>
       <c r="L276" t="n">
-        <v>17874.40837001331</v>
+        <v>18037.04260172057</v>
       </c>
     </row>
     <row r="277">
@@ -11853,7 +11853,7 @@
         <v>17187.53888677148</v>
       </c>
       <c r="L277" t="n">
-        <v>17870.04946558369</v>
+        <v>18025.63767468823</v>
       </c>
     </row>
     <row r="278">
@@ -11891,7 +11891,7 @@
         <v>17199.26020389907</v>
       </c>
       <c r="L278" t="n">
-        <v>17853.05148409185</v>
+        <v>18017.88659354088</v>
       </c>
     </row>
     <row r="279">
@@ -11929,7 +11929,7 @@
         <v>17201.6586645573</v>
       </c>
       <c r="L279" t="n">
-        <v>17837.4995272854</v>
+        <v>18024.74018316995</v>
       </c>
     </row>
     <row r="280">
@@ -11967,7 +11967,7 @@
         <v>17196.16243652204</v>
       </c>
       <c r="L280" t="n">
-        <v>17821.51608417209</v>
+        <v>18017.24005842636</v>
       </c>
     </row>
     <row r="281">
@@ -12005,7 +12005,7 @@
         <v>17194.94959173542</v>
       </c>
       <c r="L281" t="n">
-        <v>17816.99867051986</v>
+        <v>17995.97046168882</v>
       </c>
     </row>
     <row r="282">
@@ -12043,7 +12043,7 @@
         <v>17196.57325809946</v>
       </c>
       <c r="L282" t="n">
-        <v>17811.5248451502</v>
+        <v>17985.03987201727</v>
       </c>
     </row>
     <row r="283">
@@ -12081,7 +12081,7 @@
         <v>17179.87747555332</v>
       </c>
       <c r="L283" t="n">
-        <v>17805.19756962325</v>
+        <v>17972.69956202546</v>
       </c>
     </row>
     <row r="284">
@@ -12116,10 +12116,10 @@
         <v>19996.71134847504</v>
       </c>
       <c r="K284" t="n">
-        <v>17194.39675552694</v>
+        <v>17194.39675552693</v>
       </c>
       <c r="L284" t="n">
-        <v>17810.33612517286</v>
+        <v>17965.71404669796</v>
       </c>
     </row>
     <row r="285">
@@ -12157,7 +12157,7 @@
         <v>17202.77176647391</v>
       </c>
       <c r="L285" t="n">
-        <v>17807.61508324874</v>
+        <v>17970.7597582974</v>
       </c>
     </row>
     <row r="286">
@@ -12195,7 +12195,7 @@
         <v>17222.19534416743</v>
       </c>
       <c r="L286" t="n">
-        <v>17775.77794049094</v>
+        <v>17967.27850693517</v>
       </c>
     </row>
     <row r="287">
@@ -12233,7 +12233,7 @@
         <v>17218.64703886773</v>
       </c>
       <c r="L287" t="n">
-        <v>17782.98405939234</v>
+        <v>17946.47551056257</v>
       </c>
     </row>
     <row r="288">
@@ -12268,10 +12268,10 @@
         <v>20034.96151754766</v>
       </c>
       <c r="K288" t="n">
-        <v>17214.10189606262</v>
+        <v>17214.10189606261</v>
       </c>
       <c r="L288" t="n">
-        <v>17767.5080838528</v>
+        <v>17932.66894066545</v>
       </c>
     </row>
     <row r="289">
@@ -12309,7 +12309,7 @@
         <v>17215.84518545788</v>
       </c>
       <c r="L289" t="n">
-        <v>17763.39319236913</v>
+        <v>17932.19083399899</v>
       </c>
     </row>
     <row r="290">
@@ -12347,7 +12347,7 @@
         <v>17196.90666135999</v>
       </c>
       <c r="L290" t="n">
-        <v>17759.02992348032</v>
+        <v>17914.85381338144</v>
       </c>
     </row>
     <row r="291">
@@ -12385,7 +12385,7 @@
         <v>17212.46138506431</v>
       </c>
       <c r="L291" t="n">
-        <v>17751.30502908814</v>
+        <v>17921.17355029706</v>
       </c>
     </row>
     <row r="292">
@@ -12423,7 +12423,7 @@
         <v>17212.50135908803</v>
       </c>
       <c r="L292" t="n">
-        <v>17742.89451783319</v>
+        <v>17915.00994198994</v>
       </c>
     </row>
     <row r="293">
@@ -12461,7 +12461,7 @@
         <v>17212.90352648383</v>
       </c>
       <c r="L293" t="n">
-        <v>17725.75846072315</v>
+        <v>17908.1103271548</v>
       </c>
     </row>
     <row r="294">
@@ -12496,10 +12496,10 @@
         <v>20033.52047911826</v>
       </c>
       <c r="K294" t="n">
-        <v>17212.69182960323</v>
+        <v>17212.69182960322</v>
       </c>
       <c r="L294" t="n">
-        <v>17697.53628048658</v>
+        <v>17908.51899924314</v>
       </c>
     </row>
     <row r="295">
@@ -12537,7 +12537,7 @@
         <v>17211.57154295946</v>
       </c>
       <c r="L295" t="n">
-        <v>17681.46475465132</v>
+        <v>17912.02266805488</v>
       </c>
     </row>
     <row r="296">
@@ -12575,7 +12575,7 @@
         <v>17213.19025236055</v>
       </c>
       <c r="L296" t="n">
-        <v>17671.88456833188</v>
+        <v>17921.38998779627</v>
       </c>
     </row>
     <row r="297">
@@ -12613,7 +12613,7 @@
         <v>17196.43687916089</v>
       </c>
       <c r="L297" t="n">
-        <v>17675.96513929551</v>
+        <v>17907.93178109679</v>
       </c>
     </row>
     <row r="298">
@@ -12651,7 +12651,7 @@
         <v>17209.2925689176</v>
       </c>
       <c r="L298" t="n">
-        <v>17670.20524346401</v>
+        <v>17904.82428614933</v>
       </c>
     </row>
     <row r="299">
@@ -12689,7 +12689,7 @@
         <v>17209.2911924558</v>
       </c>
       <c r="L299" t="n">
-        <v>17675.05276893906</v>
+        <v>17910.699641765</v>
       </c>
     </row>
     <row r="300">
@@ -12727,7 +12727,7 @@
         <v>17199.22484515625</v>
       </c>
       <c r="L300" t="n">
-        <v>17664.40586911525</v>
+        <v>17911.69414330814</v>
       </c>
     </row>
     <row r="301">
@@ -12765,7 +12765,7 @@
         <v>17198.85805275079</v>
       </c>
       <c r="L301" t="n">
-        <v>17651.17659813904</v>
+        <v>17912.92273857177</v>
       </c>
     </row>
     <row r="302">
@@ -12800,10 +12800,10 @@
         <v>20013.09569985998</v>
       </c>
       <c r="K302" t="n">
-        <v>17197.595020325</v>
+        <v>17197.59502032499</v>
       </c>
       <c r="L302" t="n">
-        <v>17666.76267708102</v>
+        <v>17916.84638738886</v>
       </c>
     </row>
     <row r="303">
@@ -12841,7 +12841,7 @@
         <v>17199.07886994777</v>
       </c>
       <c r="L303" t="n">
-        <v>17659.38733619352</v>
+        <v>17899.2953098862</v>
       </c>
     </row>
     <row r="304">
@@ -12879,7 +12879,7 @@
         <v>17182.19418441223</v>
       </c>
       <c r="L304" t="n">
-        <v>17653.09259572603</v>
+        <v>17892.01896286865</v>
       </c>
     </row>
     <row r="305">
@@ -12917,7 +12917,7 @@
         <v>17196.56342878259</v>
       </c>
       <c r="L305" t="n">
-        <v>17662.32660107743</v>
+        <v>17874.50438811562</v>
       </c>
     </row>
     <row r="306">
@@ -12955,7 +12955,7 @@
         <v>17196.26718654189</v>
       </c>
       <c r="L306" t="n">
-        <v>17647.94769187213</v>
+        <v>17876.13074431961</v>
       </c>
     </row>
     <row r="307">
@@ -12993,7 +12993,7 @@
         <v>17177.41491418927</v>
       </c>
       <c r="L307" t="n">
-        <v>17670.85495273067</v>
+        <v>17883.80286843242</v>
       </c>
     </row>
     <row r="308">
@@ -13031,7 +13031,7 @@
         <v>17178.71329137154</v>
       </c>
       <c r="L308" t="n">
-        <v>17652.93964126966</v>
+        <v>17869.44677344564</v>
       </c>
     </row>
     <row r="309">
@@ -13069,7 +13069,7 @@
         <v>17189.10711695141</v>
       </c>
       <c r="L309" t="n">
-        <v>17654.82191349013</v>
+        <v>17878.34074774879</v>
       </c>
     </row>
     <row r="310">
@@ -13107,7 +13107,7 @@
         <v>17192.70198423438</v>
       </c>
       <c r="L310" t="n">
-        <v>17651.71362500464</v>
+        <v>17873.58309045628</v>
       </c>
     </row>
     <row r="311">
@@ -13145,7 +13145,7 @@
         <v>17171.08426819201</v>
       </c>
       <c r="L311" t="n">
-        <v>17648.93505157294</v>
+        <v>17879.31660114809</v>
       </c>
     </row>
     <row r="312">
@@ -13183,7 +13183,7 @@
         <v>17193.74611478221</v>
       </c>
       <c r="L312" t="n">
-        <v>17642.19275565336</v>
+        <v>17863.75313804012</v>
       </c>
     </row>
     <row r="313">
@@ -13221,7 +13221,7 @@
         <v>17212.82500392557</v>
       </c>
       <c r="L313" t="n">
-        <v>17635.42923259132</v>
+        <v>17858.89311434101</v>
       </c>
     </row>
     <row r="314">
@@ -13259,7 +13259,7 @@
         <v>17210.00379911618</v>
       </c>
       <c r="L314" t="n">
-        <v>17618.66058359177</v>
+        <v>17849.67993936304</v>
       </c>
     </row>
     <row r="315">
@@ -13297,7 +13297,7 @@
         <v>17205.71071080842</v>
       </c>
       <c r="L315" t="n">
-        <v>17638.75534726759</v>
+        <v>17831.50018135166</v>
       </c>
     </row>
     <row r="316">
@@ -13335,7 +13335,7 @@
         <v>17205.12412636968</v>
       </c>
       <c r="L316" t="n">
-        <v>17647.71677230377</v>
+        <v>17824.1454724531</v>
       </c>
     </row>
     <row r="317">
@@ -13373,7 +13373,7 @@
         <v>17206.33924053083</v>
       </c>
       <c r="L317" t="n">
-        <v>17642.07670071565</v>
+        <v>17837.80960227282</v>
       </c>
     </row>
     <row r="318">
@@ -13411,7 +13411,7 @@
         <v>17191.0676736425</v>
       </c>
       <c r="L318" t="n">
-        <v>17624.6351314619</v>
+        <v>17819.61536219229</v>
       </c>
     </row>
     <row r="319">
@@ -13449,7 +13449,7 @@
         <v>17207.45511263683</v>
       </c>
       <c r="L319" t="n">
-        <v>17636.70405144554</v>
+        <v>17810.30478042045</v>
       </c>
     </row>
     <row r="320">
@@ -13487,7 +13487,7 @@
         <v>17208.26091784749</v>
       </c>
       <c r="L320" t="n">
-        <v>17638.74304742804</v>
+        <v>17805.91334093137</v>
       </c>
     </row>
     <row r="321">
@@ -13525,7 +13525,7 @@
         <v>17208.23233811735</v>
       </c>
       <c r="L321" t="n">
-        <v>17635.84703036707</v>
+        <v>17797.20148360739</v>
       </c>
     </row>
     <row r="322">
@@ -13563,7 +13563,7 @@
         <v>17208.84408690572</v>
       </c>
       <c r="L322" t="n">
-        <v>17630.21489415931</v>
+        <v>17786.50895534653</v>
       </c>
     </row>
     <row r="323">
@@ -13601,7 +13601,7 @@
         <v>17208.67167320444</v>
       </c>
       <c r="L323" t="n">
-        <v>17636.67131800156</v>
+        <v>17788.03492898901</v>
       </c>
     </row>
     <row r="324">
@@ -13639,7 +13639,7 @@
         <v>17211.23712576291</v>
       </c>
       <c r="L324" t="n">
-        <v>17623.64558953149</v>
+        <v>17770.00891897204</v>
       </c>
     </row>
     <row r="325">
@@ -13677,7 +13677,7 @@
         <v>17193.93390657928</v>
       </c>
       <c r="L325" t="n">
-        <v>17636.22554801006</v>
+        <v>17763.88915364139</v>
       </c>
     </row>
     <row r="326">
@@ -13715,7 +13715,7 @@
         <v>17199.30088523724</v>
       </c>
       <c r="L326" t="n">
-        <v>17630.70212651318</v>
+        <v>17752.21303498539</v>
       </c>
     </row>
     <row r="327">
@@ -13753,7 +13753,7 @@
         <v>17181.46595095258</v>
       </c>
       <c r="L327" t="n">
-        <v>17636.3445787154</v>
+        <v>17758.39112536165</v>
       </c>
     </row>
     <row r="328">
@@ -13791,7 +13791,7 @@
         <v>17184.7831570635</v>
       </c>
       <c r="L328" t="n">
-        <v>17647.93320980298</v>
+        <v>17747.45101323368</v>
       </c>
     </row>
     <row r="329">
@@ -13829,7 +13829,7 @@
         <v>17197.51233596259</v>
       </c>
       <c r="L329" t="n">
-        <v>17634.63390909513</v>
+        <v>17754.09074436215</v>
       </c>
     </row>
     <row r="330">
@@ -13867,7 +13867,7 @@
         <v>17199.33885513603</v>
       </c>
       <c r="L330" t="n">
-        <v>17621.64686560429</v>
+        <v>17737.65359587699</v>
       </c>
     </row>
     <row r="331">
@@ -13905,7 +13905,7 @@
         <v>17196.87766553362</v>
       </c>
       <c r="L331" t="n">
-        <v>17615.51083274392</v>
+        <v>17715.37977675537</v>
       </c>
     </row>
     <row r="332">
@@ -13943,7 +13943,7 @@
         <v>17180.87032990409</v>
       </c>
       <c r="L332" t="n">
-        <v>17601.93319857008</v>
+        <v>17700.052391213</v>
       </c>
     </row>
     <row r="333">
@@ -13981,7 +13981,7 @@
         <v>17195.952295309</v>
       </c>
       <c r="L333" t="n">
-        <v>17609.74439022363</v>
+        <v>17678.21085193629</v>
       </c>
     </row>
     <row r="334">
@@ -14019,7 +14019,7 @@
         <v>17196.5416087129</v>
       </c>
       <c r="L334" t="n">
-        <v>17598.95624062948</v>
+        <v>17677.22289708195</v>
       </c>
     </row>
     <row r="335">
@@ -14057,7 +14057,7 @@
         <v>17197.48786535686</v>
       </c>
       <c r="L335" t="n">
-        <v>17592.92693863489</v>
+        <v>17679.31744072695</v>
       </c>
     </row>
     <row r="336">
@@ -14095,7 +14095,7 @@
         <v>17197.7457461641</v>
       </c>
       <c r="L336" t="n">
-        <v>17586.7171067372</v>
+        <v>17661.89570992409</v>
       </c>
     </row>
     <row r="337">
@@ -14133,7 +14133,7 @@
         <v>17189.85270101186</v>
       </c>
       <c r="L337" t="n">
-        <v>17582.30225787607</v>
+        <v>17656.06955366663</v>
       </c>
     </row>
     <row r="338">
@@ -14171,7 +14171,7 @@
         <v>17196.64296576842</v>
       </c>
       <c r="L338" t="n">
-        <v>17578.60318032307</v>
+        <v>17645.91306034882</v>
       </c>
     </row>
     <row r="339">
@@ -14209,7 +14209,7 @@
         <v>17199.04878338036</v>
       </c>
       <c r="L339" t="n">
-        <v>17580.44061764453</v>
+        <v>17648.89220051902</v>
       </c>
     </row>
     <row r="340">
@@ -14247,7 +14247,7 @@
         <v>17209.81845848239</v>
       </c>
       <c r="L340" t="n">
-        <v>17568.03007953656</v>
+        <v>17642.07511363958</v>
       </c>
     </row>
     <row r="341">
@@ -14285,7 +14285,7 @@
         <v>17203.98363366475</v>
       </c>
       <c r="L341" t="n">
-        <v>17573.10634235038</v>
+        <v>17618.8260362722</v>
       </c>
     </row>
     <row r="342">
@@ -14323,7 +14323,7 @@
         <v>17204.34179204246</v>
       </c>
       <c r="L342" t="n">
-        <v>17563.8439680142</v>
+        <v>17639.22710562976</v>
       </c>
     </row>
     <row r="343">
@@ -14361,7 +14361,7 @@
         <v>17203.05659397681</v>
       </c>
       <c r="L343" t="n">
-        <v>17547.98649906404</v>
+        <v>17645.31751005309</v>
       </c>
     </row>
     <row r="344">
@@ -14399,7 +14399,7 @@
         <v>17203.01497071186</v>
       </c>
       <c r="L344" t="n">
-        <v>17537.97720705184</v>
+        <v>17635.38360415427</v>
       </c>
     </row>
     <row r="345">
@@ -14437,7 +14437,7 @@
         <v>17204.67503089292</v>
       </c>
       <c r="L345" t="n">
-        <v>17546.19151602748</v>
+        <v>17642.68117831428</v>
       </c>
     </row>
     <row r="346">
@@ -14475,7 +14475,7 @@
         <v>17188.00132107216</v>
       </c>
       <c r="L346" t="n">
-        <v>17528.17780585006</v>
+        <v>17621.39015604977</v>
       </c>
     </row>
     <row r="347">
@@ -14513,7 +14513,7 @@
         <v>17202.53712656525</v>
       </c>
       <c r="L347" t="n">
-        <v>17526.00866962971</v>
+        <v>17622.09977743812</v>
       </c>
     </row>
     <row r="348">
@@ -14551,7 +14551,7 @@
         <v>17202.69598177993</v>
       </c>
       <c r="L348" t="n">
-        <v>17516.91214474297</v>
+        <v>17625.23544298584</v>
       </c>
     </row>
     <row r="349">
@@ -14589,7 +14589,7 @@
         <v>17203.00859563228</v>
       </c>
       <c r="L349" t="n">
-        <v>17499.25969275626</v>
+        <v>17595.27065322307</v>
       </c>
     </row>
     <row r="350">
@@ -14627,7 +14627,7 @@
         <v>17203.03288597018</v>
       </c>
       <c r="L350" t="n">
-        <v>17512.87799575442</v>
+        <v>17599.54782323503</v>
       </c>
     </row>
     <row r="351">
@@ -14665,7 +14665,7 @@
         <v>17199.1912341604</v>
       </c>
       <c r="L351" t="n">
-        <v>17515.13402438967</v>
+        <v>17601.56975814977</v>
       </c>
     </row>
     <row r="352">
@@ -14703,7 +14703,7 @@
         <v>17192.37636435548</v>
       </c>
       <c r="L352" t="n">
-        <v>17513.92983042063</v>
+        <v>17579.83931419804</v>
       </c>
     </row>
     <row r="353">
@@ -14741,7 +14741,7 @@
         <v>17157.07831119745</v>
       </c>
       <c r="L353" t="n">
-        <v>17499.82945306583</v>
+        <v>17569.86989747213</v>
       </c>
     </row>
     <row r="354">
@@ -14779,7 +14779,7 @@
         <v>17173.83061436714</v>
       </c>
       <c r="L354" t="n">
-        <v>17507.90806703738</v>
+        <v>17563.65133665605</v>
       </c>
     </row>
     <row r="355">
@@ -14817,7 +14817,7 @@
         <v>17186.31281609757</v>
       </c>
       <c r="L355" t="n">
-        <v>17510.74813966684</v>
+        <v>17574.03002062383</v>
       </c>
     </row>
     <row r="356">
@@ -14855,7 +14855,7 @@
         <v>17189.58019644993</v>
       </c>
       <c r="L356" t="n">
-        <v>17485.01429632545</v>
+        <v>17546.9049067215</v>
       </c>
     </row>
     <row r="357">
@@ -14893,7 +14893,7 @@
         <v>17185.06250993768</v>
       </c>
       <c r="L357" t="n">
-        <v>17458.62895825682</v>
+        <v>17539.82515875227</v>
       </c>
     </row>
     <row r="358">
@@ -14931,7 +14931,7 @@
         <v>17184.61538452637</v>
       </c>
       <c r="L358" t="n">
-        <v>17441.5612446101</v>
+        <v>17546.01019258635</v>
       </c>
     </row>
     <row r="359">
@@ -14969,7 +14969,7 @@
         <v>17187.00509740498</v>
       </c>
       <c r="L359" t="n">
-        <v>17434.95027923541</v>
+        <v>17536.54665635814</v>
       </c>
     </row>
     <row r="360">
@@ -15007,7 +15007,7 @@
         <v>17171.09649064026</v>
       </c>
       <c r="L360" t="n">
-        <v>17427.38359648908</v>
+        <v>17538.79990761026</v>
       </c>
     </row>
     <row r="361">
@@ -15045,7 +15045,7 @@
         <v>17186.17289316552</v>
       </c>
       <c r="L361" t="n">
-        <v>17426.95161422094</v>
+        <v>17555.85204807303</v>
       </c>
     </row>
     <row r="362">
@@ -15083,7 +15083,7 @@
         <v>17187.06831519678</v>
       </c>
       <c r="L362" t="n">
-        <v>17425.52820536956</v>
+        <v>17565.03863952681</v>
       </c>
     </row>
     <row r="363">
@@ -15121,7 +15121,7 @@
         <v>17196.55595609782</v>
       </c>
       <c r="L363" t="n">
-        <v>17435.47322080088</v>
+        <v>17561.61511805667</v>
       </c>
     </row>
     <row r="364">
@@ -15159,7 +15159,7 @@
         <v>17216.10687825958</v>
       </c>
       <c r="L364" t="n">
-        <v>17451.37403676623</v>
+        <v>17560.20420742935</v>
       </c>
     </row>
     <row r="365">
@@ -15197,7 +15197,7 @@
         <v>17213.63559920886</v>
       </c>
       <c r="L365" t="n">
-        <v>17447.94010010937</v>
+        <v>17566.13451555399</v>
       </c>
     </row>
     <row r="366">
@@ -15235,7 +15235,7 @@
         <v>17211.75309815886</v>
       </c>
       <c r="L366" t="n">
-        <v>17441.09275959232</v>
+        <v>17567.26570402376</v>
       </c>
     </row>
   </sheetData>
@@ -15344,7 +15344,7 @@
         <v>20201.580078125</v>
       </c>
       <c r="G2" t="n">
-        <v>19945.63968393683</v>
+        <v>19957.26616286115</v>
       </c>
       <c r="H2" t="n">
         <v>20205.73228218198</v>
@@ -15356,13 +15356,13 @@
         <v>20100.74269898466</v>
       </c>
       <c r="K2" t="n">
-        <v>20117.6506814146</v>
+        <v>20121.52617438938</v>
       </c>
       <c r="L2" t="n">
-        <v>20029.28896328562</v>
+        <v>20031.10235142895</v>
       </c>
       <c r="M2" t="n">
-        <v>20057.3227912729</v>
+        <v>20077.53182442585</v>
       </c>
     </row>
     <row r="3">
@@ -15385,7 +15385,7 @@
         <v>20301.021484375</v>
       </c>
       <c r="G3" t="n">
-        <v>19869.68613142807</v>
+        <v>19869.68613142806</v>
       </c>
       <c r="H3" t="n">
         <v>20192.5153299577</v>
@@ -15403,7 +15403,7 @@
         <v>20030.84461362466</v>
       </c>
       <c r="M3" t="n">
-        <v>20013.25722738631</v>
+        <v>20076.28239878878</v>
       </c>
     </row>
     <row r="4">
@@ -15438,13 +15438,13 @@
         <v>20106.06955797257</v>
       </c>
       <c r="K4" t="n">
-        <v>20041.45442733009</v>
+        <v>20041.45442733008</v>
       </c>
       <c r="L4" t="n">
         <v>19984.43533001385</v>
       </c>
       <c r="M4" t="n">
-        <v>19989.89308700377</v>
+        <v>20068.99890992891</v>
       </c>
     </row>
     <row r="5">
@@ -15467,7 +15467,7 @@
         <v>20307.1484375</v>
       </c>
       <c r="G5" t="n">
-        <v>19670.39598000295</v>
+        <v>19670.39598000294</v>
       </c>
       <c r="H5" t="n">
         <v>20130.13020065127</v>
@@ -15485,7 +15485,7 @@
         <v>19966.24447204706</v>
       </c>
       <c r="M5" t="n">
-        <v>19985.60163330717</v>
+        <v>20057.40492245959</v>
       </c>
     </row>
     <row r="6">
@@ -15526,7 +15526,7 @@
         <v>19965.33573189539</v>
       </c>
       <c r="M6" t="n">
-        <v>19964.82522045876</v>
+        <v>20070.66653011075</v>
       </c>
     </row>
     <row r="7">
@@ -15567,7 +15567,7 @@
         <v>19905.37387311912</v>
       </c>
       <c r="M7" t="n">
-        <v>19964.83871060537</v>
+        <v>20020.9132823539</v>
       </c>
     </row>
     <row r="8">
@@ -15590,7 +15590,7 @@
         <v>20055.3828125</v>
       </c>
       <c r="G8" t="n">
-        <v>19401.99779436532</v>
+        <v>19401.99779436531</v>
       </c>
       <c r="H8" t="n">
         <v>20067.92072282677</v>
@@ -15608,7 +15608,7 @@
         <v>19875.15441260053</v>
       </c>
       <c r="M8" t="n">
-        <v>19975.57766084131</v>
+        <v>20010.85360067644</v>
       </c>
     </row>
     <row r="9">
@@ -15631,7 +15631,7 @@
         <v>20158.123046875</v>
       </c>
       <c r="G9" t="n">
-        <v>19307.3462779328</v>
+        <v>19307.34627793279</v>
       </c>
       <c r="H9" t="n">
         <v>20056.39491476765</v>
@@ -15649,7 +15649,7 @@
         <v>19874.83835047581</v>
       </c>
       <c r="M9" t="n">
-        <v>19975.36380234072</v>
+        <v>20002.07191200533</v>
       </c>
     </row>
     <row r="10">
@@ -15672,7 +15672,7 @@
         <v>20002.341796875</v>
       </c>
       <c r="G10" t="n">
-        <v>19217.47005323684</v>
+        <v>19217.47005323683</v>
       </c>
       <c r="H10" t="n">
         <v>20040.25467508489</v>
@@ -15690,7 +15690,7 @@
         <v>19826.69818177308</v>
       </c>
       <c r="M10" t="n">
-        <v>19974.00566199277</v>
+        <v>20004.28627989371</v>
       </c>
     </row>
     <row r="11">
@@ -15713,7 +15713,7 @@
         <v>20018.84375</v>
       </c>
       <c r="G11" t="n">
-        <v>19109.71713316078</v>
+        <v>19109.71713316077</v>
       </c>
       <c r="H11" t="n">
         <v>20036.98535020253</v>
@@ -15725,13 +15725,13 @@
         <v>20123.59512491063</v>
       </c>
       <c r="K11" t="n">
-        <v>19721.84874445444</v>
+        <v>19721.84874445443</v>
       </c>
       <c r="L11" t="n">
         <v>19812.83739498091</v>
       </c>
       <c r="M11" t="n">
-        <v>19986.95461565789</v>
+        <v>20026.09270511235</v>
       </c>
     </row>
     <row r="12">
@@ -15754,7 +15754,7 @@
         <v>20032.513671875</v>
       </c>
       <c r="G12" t="n">
-        <v>19021.85279650378</v>
+        <v>19021.85279650377</v>
       </c>
       <c r="H12" t="n">
         <v>20014.73129955851</v>
@@ -15766,13 +15766,13 @@
         <v>19911.77170043999</v>
       </c>
       <c r="K12" t="n">
-        <v>19689.6992559791</v>
+        <v>19689.69925597909</v>
       </c>
       <c r="L12" t="n">
         <v>19778.49729517267</v>
       </c>
       <c r="M12" t="n">
-        <v>20020.18203705409</v>
+        <v>20027.53138957091</v>
       </c>
     </row>
     <row r="13">
@@ -15795,7 +15795,7 @@
         <v>20010.251953125</v>
       </c>
       <c r="G13" t="n">
-        <v>18978.37687228402</v>
+        <v>18978.376872284</v>
       </c>
       <c r="H13" t="n">
         <v>19978.47429035021</v>
@@ -15807,13 +15807,13 @@
         <v>20116.76801825982</v>
       </c>
       <c r="K13" t="n">
-        <v>19655.70103858641</v>
+        <v>19655.7010385864</v>
       </c>
       <c r="L13" t="n">
         <v>19770.46072909399</v>
       </c>
       <c r="M13" t="n">
-        <v>20037.19588930664</v>
+        <v>20038.99603034043</v>
       </c>
     </row>
   </sheetData>
